--- a/Code/Results/Cases/Case_0_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.273205236902395</v>
+        <v>5.27320523690257</v>
       </c>
       <c r="D2">
-        <v>6.734551180445258</v>
+        <v>6.734551180445402</v>
       </c>
       <c r="E2">
-        <v>16.80868059671548</v>
+        <v>16.8086805967155</v>
       </c>
       <c r="F2">
-        <v>70.36241697123489</v>
+        <v>70.36241697123504</v>
       </c>
       <c r="G2">
-        <v>55.41195696318435</v>
+        <v>55.41195696318449</v>
       </c>
       <c r="H2">
-        <v>51.10974091093922</v>
+        <v>51.10974091093934</v>
       </c>
       <c r="I2">
-        <v>15.68611647820299</v>
+        <v>15.68611647820305</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -441,25 +441,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.822114252286392</v>
+        <v>4.822114252286532</v>
       </c>
       <c r="D3">
-        <v>6.192012722669505</v>
+        <v>6.192012722669655</v>
       </c>
       <c r="E3">
-        <v>15.36848066509626</v>
+        <v>15.36848066509624</v>
       </c>
       <c r="F3">
-        <v>64.48862575736234</v>
+        <v>64.4886257573628</v>
       </c>
       <c r="G3">
-        <v>50.76083788366632</v>
+        <v>50.76083788366672</v>
       </c>
       <c r="H3">
-        <v>46.81988867908207</v>
+        <v>46.81988867908245</v>
       </c>
       <c r="I3">
-        <v>14.36670149345549</v>
+        <v>14.36670149345555</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -470,25 +470,25 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4.543078116247838</v>
+        <v>4.543078116247824</v>
       </c>
       <c r="D4">
-        <v>5.85580180928356</v>
+        <v>5.855801809283562</v>
       </c>
       <c r="E4">
-        <v>14.47575993724423</v>
+        <v>14.47575993724414</v>
       </c>
       <c r="F4">
-        <v>60.84402394759616</v>
+        <v>60.84402394759594</v>
       </c>
       <c r="G4">
-        <v>47.87222854092033</v>
+        <v>47.87222854092013</v>
       </c>
       <c r="H4">
-        <v>44.15451579220289</v>
+        <v>44.1545157922027</v>
       </c>
       <c r="I4">
-        <v>13.54862004243256</v>
+        <v>13.54862004243249</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -502,22 +502,22 @@
         <v>4.428325886638887</v>
       </c>
       <c r="D5">
-        <v>5.717442530404213</v>
+        <v>5.717442530404267</v>
       </c>
       <c r="E5">
-        <v>14.10826794366825</v>
+        <v>14.10826794366823</v>
       </c>
       <c r="F5">
-        <v>59.34372574442089</v>
+        <v>59.34372574442081</v>
       </c>
       <c r="G5">
-        <v>46.68240287014177</v>
+        <v>46.68240287014173</v>
       </c>
       <c r="H5">
-        <v>43.05637273946042</v>
+        <v>43.05637273946036</v>
       </c>
       <c r="I5">
-        <v>13.21180439992878</v>
+        <v>13.21180439992881</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -528,25 +528,25 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.409195489233713</v>
+        <v>4.409195489233766</v>
       </c>
       <c r="D6">
-        <v>5.694372454026205</v>
+        <v>5.694372454026177</v>
       </c>
       <c r="E6">
-        <v>14.04698366209062</v>
+        <v>14.04698366209064</v>
       </c>
       <c r="F6">
-        <v>59.09355716793849</v>
+        <v>59.09355716793877</v>
       </c>
       <c r="G6">
-        <v>46.48395823520745</v>
+        <v>46.48395823520768</v>
       </c>
       <c r="H6">
-        <v>42.87320344098133</v>
+        <v>42.87320344098157</v>
       </c>
       <c r="I6">
-        <v>13.15563307737161</v>
+        <v>13.15563307737167</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -557,25 +557,25 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4.541535347398931</v>
+        <v>4.541535347398971</v>
       </c>
       <c r="D7">
-        <v>5.853941968161392</v>
+        <v>5.853941968161512</v>
       </c>
       <c r="E7">
-        <v>14.47082060369674</v>
+        <v>14.47082060369683</v>
       </c>
       <c r="F7">
-        <v>60.82385772752443</v>
+        <v>60.82385772752463</v>
       </c>
       <c r="G7">
-        <v>47.85623856419556</v>
+        <v>47.85623856419575</v>
       </c>
       <c r="H7">
-        <v>44.13975900019756</v>
+        <v>44.13975900019776</v>
       </c>
       <c r="I7">
-        <v>13.54409320697208</v>
+        <v>13.54409320697217</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -586,25 +586,25 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>5.11773565267567</v>
+        <v>5.117735652675582</v>
       </c>
       <c r="D8">
-        <v>6.547727663446619</v>
+        <v>6.547727663446426</v>
       </c>
       <c r="E8">
-        <v>16.31275826624438</v>
+        <v>16.31275826624431</v>
       </c>
       <c r="F8">
-        <v>68.34118246749341</v>
+        <v>68.34118246749297</v>
       </c>
       <c r="G8">
-        <v>53.81196938716892</v>
+        <v>53.81196938716851</v>
       </c>
       <c r="H8">
-        <v>49.63427395408267</v>
+        <v>49.63427395408232</v>
       </c>
       <c r="I8">
-        <v>15.23183883504006</v>
+        <v>15.23183883503994</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -615,25 +615,25 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>6.265894957936857</v>
+        <v>6.26589495793697</v>
       </c>
       <c r="D9">
-        <v>7.921818544636013</v>
+        <v>7.921818544636062</v>
       </c>
       <c r="E9">
-        <v>19.96207922166479</v>
+        <v>19.96207922166474</v>
       </c>
       <c r="F9">
-        <v>83.15180453219425</v>
+        <v>83.15180453219429</v>
       </c>
       <c r="G9">
-        <v>65.52731910117929</v>
+        <v>65.52731910117933</v>
       </c>
       <c r="H9">
-        <v>60.43212498326788</v>
+        <v>60.43212498326793</v>
       </c>
       <c r="I9">
-        <v>18.57329088166956</v>
+        <v>18.57329088166954</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -644,25 +644,25 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>7.204873802818073</v>
+        <v>7.204873802817955</v>
       </c>
       <c r="D10">
-        <v>9.032300717993817</v>
+        <v>9.032300717993781</v>
       </c>
       <c r="E10">
-        <v>22.91871314999423</v>
+        <v>22.91871314999428</v>
       </c>
       <c r="F10">
-        <v>94.9804629149975</v>
+        <v>94.98046291499755</v>
       </c>
       <c r="G10">
-        <v>74.87601106721797</v>
+        <v>74.87601106721796</v>
       </c>
       <c r="H10">
-        <v>69.03875857680453</v>
+        <v>69.03875857680461</v>
       </c>
       <c r="I10">
-        <v>21.27773229356243</v>
+        <v>21.27773229356241</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -673,25 +673,25 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>7.697390241124941</v>
+        <v>7.697390241124802</v>
       </c>
       <c r="D11">
-        <v>9.608138982626983</v>
+        <v>9.608138982627057</v>
       </c>
       <c r="E11">
-        <v>24.45672775546127</v>
+        <v>24.45672775546138</v>
       </c>
       <c r="F11">
-        <v>101.0412174967096</v>
+        <v>101.0412174967098</v>
       </c>
       <c r="G11">
-        <v>79.66576670691514</v>
+        <v>79.66576670691535</v>
       </c>
       <c r="H11">
-        <v>73.44440597713513</v>
+        <v>73.44440597713535</v>
       </c>
       <c r="I11">
-        <v>22.68333969124712</v>
+        <v>22.68333969124718</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -702,25 +702,25 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>7.902668375199147</v>
+        <v>7.902668375199301</v>
       </c>
       <c r="D12">
-        <v>9.846523075226344</v>
+        <v>9.846523075226393</v>
       </c>
       <c r="E12">
-        <v>25.09476716330198</v>
+        <v>25.09476716330197</v>
       </c>
       <c r="F12">
-        <v>103.5322695244756</v>
+        <v>103.5322695244755</v>
       </c>
       <c r="G12">
-        <v>81.63462206053491</v>
+        <v>81.63462206053482</v>
       </c>
       <c r="H12">
-        <v>75.2544868949374</v>
+        <v>75.25448689493727</v>
       </c>
       <c r="I12">
-        <v>23.26615852745435</v>
+        <v>23.26615852745433</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -731,25 +731,25 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>7.857344870182156</v>
+        <v>7.857344870182158</v>
       </c>
       <c r="D13">
-        <v>9.793978248366928</v>
+        <v>9.793978248366942</v>
       </c>
       <c r="E13">
-        <v>24.95405381782659</v>
+        <v>24.9540538178265</v>
       </c>
       <c r="F13">
-        <v>102.9841675936956</v>
+        <v>102.9841675936958</v>
       </c>
       <c r="G13">
-        <v>81.20140289931797</v>
+        <v>81.20140289931813</v>
       </c>
       <c r="H13">
-        <v>74.85625100068542</v>
+        <v>74.85625100068557</v>
       </c>
       <c r="I13">
-        <v>23.13763947402067</v>
+        <v>23.13763947402064</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -760,25 +760,25 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>7.713808503239313</v>
+        <v>7.713808503239256</v>
       </c>
       <c r="D14">
-        <v>9.627242198016326</v>
+        <v>9.627242198016251</v>
       </c>
       <c r="E14">
-        <v>24.50782610053037</v>
+        <v>24.50782610053032</v>
       </c>
       <c r="F14">
-        <v>101.2412534549772</v>
+        <v>101.2412534549767</v>
       </c>
       <c r="G14">
-        <v>79.82386325635778</v>
+        <v>79.82386325635738</v>
       </c>
       <c r="H14">
-        <v>73.58977314172994</v>
+        <v>73.58977314172957</v>
       </c>
       <c r="I14">
-        <v>22.73002231848077</v>
+        <v>22.73002231848069</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -789,25 +789,25 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>7.628790722335495</v>
+        <v>7.628790722335784</v>
       </c>
       <c r="D15">
-        <v>9.528253337976448</v>
+        <v>9.52825333797653</v>
       </c>
       <c r="E15">
-        <v>24.24310199421339</v>
+        <v>24.24310199421332</v>
       </c>
       <c r="F15">
-        <v>100.2039562362887</v>
+        <v>100.2039562362888</v>
       </c>
       <c r="G15">
-        <v>79.00405483017023</v>
+        <v>79.00405483017032</v>
       </c>
       <c r="H15">
-        <v>72.83593598845563</v>
+        <v>72.83593598845572</v>
       </c>
       <c r="I15">
-        <v>22.48816241705725</v>
+        <v>22.48816241705722</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>7.174601897405415</v>
+        <v>7.17460189740525</v>
       </c>
       <c r="D16">
-        <v>8.99674249090676</v>
+        <v>8.99674249090662</v>
       </c>
       <c r="E16">
-        <v>22.8238696970749</v>
+        <v>22.82386969707497</v>
       </c>
       <c r="F16">
         <v>94.60437318099558</v>
       </c>
       <c r="G16">
-        <v>74.57880078164803</v>
+        <v>74.57880078164796</v>
       </c>
       <c r="H16">
-        <v>68.76528882846813</v>
+        <v>68.76528882846809</v>
       </c>
       <c r="I16">
-        <v>21.19102399916929</v>
+        <v>21.19102399916927</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>6.916940306174914</v>
+        <v>6.916940306174761</v>
       </c>
       <c r="D17">
-        <v>8.693379334403405</v>
+        <v>8.69337933440346</v>
       </c>
       <c r="E17">
-        <v>22.01524069314722</v>
+        <v>22.01524069314737</v>
       </c>
       <c r="F17">
-        <v>91.38794422685596</v>
+        <v>91.38794422685642</v>
       </c>
       <c r="G17">
-        <v>72.03695160379515</v>
+        <v>72.0369516037955</v>
       </c>
       <c r="H17">
-        <v>66.426058167581</v>
+        <v>66.42605816758142</v>
       </c>
       <c r="I17">
-        <v>20.45162531313657</v>
+        <v>20.45162531313663</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -876,25 +876,25 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>6.774099875821289</v>
+        <v>6.774099875820919</v>
       </c>
       <c r="D18">
-        <v>8.524685430555305</v>
+        <v>8.524685430555131</v>
       </c>
       <c r="E18">
-        <v>21.56594963273218</v>
+        <v>21.56594963273231</v>
       </c>
       <c r="F18">
-        <v>89.59362722409153</v>
+        <v>89.59362722409126</v>
       </c>
       <c r="G18">
-        <v>70.61891055080125</v>
+        <v>70.61891055080103</v>
       </c>
       <c r="H18">
-        <v>65.12073789104718</v>
+        <v>65.12073789104701</v>
       </c>
       <c r="I18">
-        <v>20.04070407488824</v>
+        <v>20.04070407488826</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -905,25 +905,25 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>6.726496992592991</v>
+        <v>6.72649699259304</v>
       </c>
       <c r="D19">
         <v>8.46838894269027</v>
       </c>
       <c r="E19">
-        <v>21.41606585802263</v>
+        <v>21.41606585802264</v>
       </c>
       <c r="F19">
-        <v>88.99397247229297</v>
+        <v>88.99397247229334</v>
       </c>
       <c r="G19">
-        <v>70.14499381812537</v>
+        <v>70.14499381812567</v>
       </c>
       <c r="H19">
-        <v>64.68444422556747</v>
+        <v>64.68444422556777</v>
       </c>
       <c r="I19">
-        <v>19.90360588801372</v>
+        <v>19.90360588801375</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -934,25 +934,25 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>6.943773103147172</v>
+        <v>6.943773103147182</v>
       </c>
       <c r="D20">
-        <v>8.725028678241323</v>
+        <v>8.7250286782413</v>
       </c>
       <c r="E20">
-        <v>22.09956208477488</v>
+        <v>22.0995620847749</v>
       </c>
       <c r="F20">
-        <v>91.72414159861368</v>
+        <v>91.72414159861366</v>
       </c>
       <c r="G20">
-        <v>72.30264209673562</v>
+        <v>72.30264209673561</v>
       </c>
       <c r="H20">
-        <v>66.67060407692374</v>
+        <v>66.67060407692371</v>
       </c>
       <c r="I20">
-        <v>20.52873811972076</v>
+        <v>20.52873811972077</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -963,25 +963,25 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>7.755328542367323</v>
+        <v>7.75532854236729</v>
       </c>
       <c r="D21">
-        <v>9.67552386681256</v>
+        <v>9.675523866812464</v>
       </c>
       <c r="E21">
-        <v>24.63699655835065</v>
+        <v>24.63699655835057</v>
       </c>
       <c r="F21">
-        <v>101.74651192187</v>
+        <v>101.7465119218697</v>
       </c>
       <c r="G21">
-        <v>80.22319389287205</v>
+        <v>80.22319389287188</v>
       </c>
       <c r="H21">
-        <v>73.95693574729857</v>
+        <v>73.9569357472984</v>
       </c>
       <c r="I21">
-        <v>22.84802526605602</v>
+        <v>22.84802526605601</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -992,25 +992,25 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>8.41262106087731</v>
+        <v>8.412621060877385</v>
       </c>
       <c r="D22">
-        <v>10.43400109247962</v>
+        <v>10.43400109247951</v>
       </c>
       <c r="E22">
-        <v>26.67139819028558</v>
+        <v>26.67139819028568</v>
       </c>
       <c r="F22">
-        <v>109.6193194511091</v>
+        <v>109.6193194511094</v>
       </c>
       <c r="G22">
-        <v>86.44662098170114</v>
+        <v>86.44662098170133</v>
       </c>
       <c r="H22">
-        <v>79.67597325444324</v>
+        <v>79.67597325444339</v>
       </c>
       <c r="I22">
-        <v>24.70547781542876</v>
+        <v>24.70547781542878</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1021,25 +1021,25 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>8.042761607805604</v>
+        <v>8.042761607805723</v>
       </c>
       <c r="D23">
-        <v>10.00860910027889</v>
+        <v>10.00860910027881</v>
       </c>
       <c r="E23">
-        <v>25.52911861060937</v>
+        <v>25.52911861060925</v>
       </c>
       <c r="F23">
-        <v>105.2193792774655</v>
+        <v>105.219379277465</v>
       </c>
       <c r="G23">
-        <v>82.96817575786775</v>
+        <v>82.96817575786729</v>
       </c>
       <c r="H23">
-        <v>76.48018035156539</v>
+        <v>76.48018035156494</v>
       </c>
       <c r="I23">
-        <v>23.66280932327623</v>
+        <v>23.6628093232761</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1050,25 +1050,25 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>6.931626032279089</v>
+        <v>6.931626032279152</v>
       </c>
       <c r="D24">
-        <v>8.710702781137655</v>
+        <v>8.710702781137691</v>
       </c>
       <c r="E24">
-        <v>22.06139334559389</v>
+        <v>22.06139334559382</v>
       </c>
       <c r="F24">
-        <v>91.57198142221947</v>
+        <v>91.57198142221917</v>
       </c>
       <c r="G24">
-        <v>72.18239291177997</v>
+        <v>72.18239291177977</v>
       </c>
       <c r="H24">
-        <v>66.55992572204551</v>
+        <v>66.55992572204526</v>
       </c>
       <c r="I24">
-        <v>20.4938326999584</v>
+        <v>20.49383269995834</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>5.947179195637772</v>
+        <v>5.94717919563785</v>
       </c>
       <c r="D25">
-        <v>7.541856794197945</v>
+        <v>7.54185679419798</v>
       </c>
       <c r="E25">
-        <v>18.95234656876573</v>
+        <v>18.95234656876574</v>
       </c>
       <c r="F25">
-        <v>79.07147566429484</v>
+        <v>79.07147566429475</v>
       </c>
       <c r="G25">
-        <v>62.30136596747335</v>
+        <v>62.30136596747333</v>
       </c>
       <c r="H25">
-        <v>57.46014079583873</v>
+        <v>57.46014079583868</v>
       </c>
       <c r="I25">
-        <v>17.64908534664808</v>
+        <v>17.64908534664815</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_line/loading_percent.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.27320523690257</v>
+        <v>5.273205236902395</v>
       </c>
       <c r="D2">
-        <v>6.734551180445402</v>
+        <v>6.734551180445258</v>
       </c>
       <c r="E2">
-        <v>16.8086805967155</v>
+        <v>16.80868059671548</v>
       </c>
       <c r="F2">
-        <v>70.36241697123504</v>
+        <v>70.36241697123489</v>
       </c>
       <c r="G2">
-        <v>55.41195696318449</v>
+        <v>55.41195696318435</v>
       </c>
       <c r="H2">
-        <v>51.10974091093934</v>
+        <v>51.10974091093922</v>
       </c>
       <c r="I2">
-        <v>15.68611647820305</v>
+        <v>15.68611647820299</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -441,25 +441,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.822114252286532</v>
+        <v>4.822114252286392</v>
       </c>
       <c r="D3">
-        <v>6.192012722669655</v>
+        <v>6.192012722669505</v>
       </c>
       <c r="E3">
-        <v>15.36848066509624</v>
+        <v>15.36848066509626</v>
       </c>
       <c r="F3">
-        <v>64.4886257573628</v>
+        <v>64.48862575736234</v>
       </c>
       <c r="G3">
-        <v>50.76083788366672</v>
+        <v>50.76083788366632</v>
       </c>
       <c r="H3">
-        <v>46.81988867908245</v>
+        <v>46.81988867908207</v>
       </c>
       <c r="I3">
-        <v>14.36670149345555</v>
+        <v>14.36670149345549</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -470,25 +470,25 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4.543078116247824</v>
+        <v>4.543078116247838</v>
       </c>
       <c r="D4">
-        <v>5.855801809283562</v>
+        <v>5.85580180928356</v>
       </c>
       <c r="E4">
-        <v>14.47575993724414</v>
+        <v>14.47575993724423</v>
       </c>
       <c r="F4">
-        <v>60.84402394759594</v>
+        <v>60.84402394759616</v>
       </c>
       <c r="G4">
-        <v>47.87222854092013</v>
+        <v>47.87222854092033</v>
       </c>
       <c r="H4">
-        <v>44.1545157922027</v>
+        <v>44.15451579220289</v>
       </c>
       <c r="I4">
-        <v>13.54862004243249</v>
+        <v>13.54862004243256</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -502,22 +502,22 @@
         <v>4.428325886638887</v>
       </c>
       <c r="D5">
-        <v>5.717442530404267</v>
+        <v>5.717442530404213</v>
       </c>
       <c r="E5">
-        <v>14.10826794366823</v>
+        <v>14.10826794366825</v>
       </c>
       <c r="F5">
-        <v>59.34372574442081</v>
+        <v>59.34372574442089</v>
       </c>
       <c r="G5">
-        <v>46.68240287014173</v>
+        <v>46.68240287014177</v>
       </c>
       <c r="H5">
-        <v>43.05637273946036</v>
+        <v>43.05637273946042</v>
       </c>
       <c r="I5">
-        <v>13.21180439992881</v>
+        <v>13.21180439992878</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -528,25 +528,25 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.409195489233766</v>
+        <v>4.409195489233713</v>
       </c>
       <c r="D6">
-        <v>5.694372454026177</v>
+        <v>5.694372454026205</v>
       </c>
       <c r="E6">
-        <v>14.04698366209064</v>
+        <v>14.04698366209062</v>
       </c>
       <c r="F6">
-        <v>59.09355716793877</v>
+        <v>59.09355716793849</v>
       </c>
       <c r="G6">
-        <v>46.48395823520768</v>
+        <v>46.48395823520745</v>
       </c>
       <c r="H6">
-        <v>42.87320344098157</v>
+        <v>42.87320344098133</v>
       </c>
       <c r="I6">
-        <v>13.15563307737167</v>
+        <v>13.15563307737161</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -557,25 +557,25 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4.541535347398971</v>
+        <v>4.541535347398931</v>
       </c>
       <c r="D7">
-        <v>5.853941968161512</v>
+        <v>5.853941968161392</v>
       </c>
       <c r="E7">
-        <v>14.47082060369683</v>
+        <v>14.47082060369674</v>
       </c>
       <c r="F7">
-        <v>60.82385772752463</v>
+        <v>60.82385772752443</v>
       </c>
       <c r="G7">
-        <v>47.85623856419575</v>
+        <v>47.85623856419556</v>
       </c>
       <c r="H7">
-        <v>44.13975900019776</v>
+        <v>44.13975900019756</v>
       </c>
       <c r="I7">
-        <v>13.54409320697217</v>
+        <v>13.54409320697208</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -586,25 +586,25 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>5.117735652675582</v>
+        <v>5.11773565267567</v>
       </c>
       <c r="D8">
-        <v>6.547727663446426</v>
+        <v>6.547727663446619</v>
       </c>
       <c r="E8">
-        <v>16.31275826624431</v>
+        <v>16.31275826624438</v>
       </c>
       <c r="F8">
-        <v>68.34118246749297</v>
+        <v>68.34118246749341</v>
       </c>
       <c r="G8">
-        <v>53.81196938716851</v>
+        <v>53.81196938716892</v>
       </c>
       <c r="H8">
-        <v>49.63427395408232</v>
+        <v>49.63427395408267</v>
       </c>
       <c r="I8">
-        <v>15.23183883503994</v>
+        <v>15.23183883504006</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -615,25 +615,25 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>6.26589495793697</v>
+        <v>6.265894957936857</v>
       </c>
       <c r="D9">
-        <v>7.921818544636062</v>
+        <v>7.921818544636013</v>
       </c>
       <c r="E9">
-        <v>19.96207922166474</v>
+        <v>19.96207922166479</v>
       </c>
       <c r="F9">
-        <v>83.15180453219429</v>
+        <v>83.15180453219425</v>
       </c>
       <c r="G9">
-        <v>65.52731910117933</v>
+        <v>65.52731910117929</v>
       </c>
       <c r="H9">
-        <v>60.43212498326793</v>
+        <v>60.43212498326788</v>
       </c>
       <c r="I9">
-        <v>18.57329088166954</v>
+        <v>18.57329088166956</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -644,25 +644,25 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>7.204873802817955</v>
+        <v>7.204873802818073</v>
       </c>
       <c r="D10">
-        <v>9.032300717993781</v>
+        <v>9.032300717993817</v>
       </c>
       <c r="E10">
-        <v>22.91871314999428</v>
+        <v>22.91871314999423</v>
       </c>
       <c r="F10">
-        <v>94.98046291499755</v>
+        <v>94.9804629149975</v>
       </c>
       <c r="G10">
-        <v>74.87601106721796</v>
+        <v>74.87601106721797</v>
       </c>
       <c r="H10">
-        <v>69.03875857680461</v>
+        <v>69.03875857680453</v>
       </c>
       <c r="I10">
-        <v>21.27773229356241</v>
+        <v>21.27773229356243</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -673,25 +673,25 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>7.697390241124802</v>
+        <v>7.697390241124941</v>
       </c>
       <c r="D11">
-        <v>9.608138982627057</v>
+        <v>9.608138982626983</v>
       </c>
       <c r="E11">
-        <v>24.45672775546138</v>
+        <v>24.45672775546127</v>
       </c>
       <c r="F11">
-        <v>101.0412174967098</v>
+        <v>101.0412174967096</v>
       </c>
       <c r="G11">
-        <v>79.66576670691535</v>
+        <v>79.66576670691514</v>
       </c>
       <c r="H11">
-        <v>73.44440597713535</v>
+        <v>73.44440597713513</v>
       </c>
       <c r="I11">
-        <v>22.68333969124718</v>
+        <v>22.68333969124712</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -702,25 +702,25 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>7.902668375199301</v>
+        <v>7.902668375199147</v>
       </c>
       <c r="D12">
-        <v>9.846523075226393</v>
+        <v>9.846523075226344</v>
       </c>
       <c r="E12">
-        <v>25.09476716330197</v>
+        <v>25.09476716330198</v>
       </c>
       <c r="F12">
-        <v>103.5322695244755</v>
+        <v>103.5322695244756</v>
       </c>
       <c r="G12">
-        <v>81.63462206053482</v>
+        <v>81.63462206053491</v>
       </c>
       <c r="H12">
-        <v>75.25448689493727</v>
+        <v>75.2544868949374</v>
       </c>
       <c r="I12">
-        <v>23.26615852745433</v>
+        <v>23.26615852745435</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -731,25 +731,25 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>7.857344870182158</v>
+        <v>7.857344870182156</v>
       </c>
       <c r="D13">
-        <v>9.793978248366942</v>
+        <v>9.793978248366928</v>
       </c>
       <c r="E13">
-        <v>24.9540538178265</v>
+        <v>24.95405381782659</v>
       </c>
       <c r="F13">
-        <v>102.9841675936958</v>
+        <v>102.9841675936956</v>
       </c>
       <c r="G13">
-        <v>81.20140289931813</v>
+        <v>81.20140289931797</v>
       </c>
       <c r="H13">
-        <v>74.85625100068557</v>
+        <v>74.85625100068542</v>
       </c>
       <c r="I13">
-        <v>23.13763947402064</v>
+        <v>23.13763947402067</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -760,25 +760,25 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>7.713808503239256</v>
+        <v>7.713808503239313</v>
       </c>
       <c r="D14">
-        <v>9.627242198016251</v>
+        <v>9.627242198016326</v>
       </c>
       <c r="E14">
-        <v>24.50782610053032</v>
+        <v>24.50782610053037</v>
       </c>
       <c r="F14">
-        <v>101.2412534549767</v>
+        <v>101.2412534549772</v>
       </c>
       <c r="G14">
-        <v>79.82386325635738</v>
+        <v>79.82386325635778</v>
       </c>
       <c r="H14">
-        <v>73.58977314172957</v>
+        <v>73.58977314172994</v>
       </c>
       <c r="I14">
-        <v>22.73002231848069</v>
+        <v>22.73002231848077</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -789,25 +789,25 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>7.628790722335784</v>
+        <v>7.628790722335495</v>
       </c>
       <c r="D15">
-        <v>9.52825333797653</v>
+        <v>9.528253337976448</v>
       </c>
       <c r="E15">
-        <v>24.24310199421332</v>
+        <v>24.24310199421339</v>
       </c>
       <c r="F15">
-        <v>100.2039562362888</v>
+        <v>100.2039562362887</v>
       </c>
       <c r="G15">
-        <v>79.00405483017032</v>
+        <v>79.00405483017023</v>
       </c>
       <c r="H15">
-        <v>72.83593598845572</v>
+        <v>72.83593598845563</v>
       </c>
       <c r="I15">
-        <v>22.48816241705722</v>
+        <v>22.48816241705725</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>7.17460189740525</v>
+        <v>7.174601897405415</v>
       </c>
       <c r="D16">
-        <v>8.99674249090662</v>
+        <v>8.99674249090676</v>
       </c>
       <c r="E16">
-        <v>22.82386969707497</v>
+        <v>22.8238696970749</v>
       </c>
       <c r="F16">
         <v>94.60437318099558</v>
       </c>
       <c r="G16">
-        <v>74.57880078164796</v>
+        <v>74.57880078164803</v>
       </c>
       <c r="H16">
-        <v>68.76528882846809</v>
+        <v>68.76528882846813</v>
       </c>
       <c r="I16">
-        <v>21.19102399916927</v>
+        <v>21.19102399916929</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>6.916940306174761</v>
+        <v>6.916940306174914</v>
       </c>
       <c r="D17">
-        <v>8.69337933440346</v>
+        <v>8.693379334403405</v>
       </c>
       <c r="E17">
-        <v>22.01524069314737</v>
+        <v>22.01524069314722</v>
       </c>
       <c r="F17">
-        <v>91.38794422685642</v>
+        <v>91.38794422685596</v>
       </c>
       <c r="G17">
-        <v>72.0369516037955</v>
+        <v>72.03695160379515</v>
       </c>
       <c r="H17">
-        <v>66.42605816758142</v>
+        <v>66.426058167581</v>
       </c>
       <c r="I17">
-        <v>20.45162531313663</v>
+        <v>20.45162531313657</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -876,25 +876,25 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>6.774099875820919</v>
+        <v>6.774099875821289</v>
       </c>
       <c r="D18">
-        <v>8.524685430555131</v>
+        <v>8.524685430555305</v>
       </c>
       <c r="E18">
-        <v>21.56594963273231</v>
+        <v>21.56594963273218</v>
       </c>
       <c r="F18">
-        <v>89.59362722409126</v>
+        <v>89.59362722409153</v>
       </c>
       <c r="G18">
-        <v>70.61891055080103</v>
+        <v>70.61891055080125</v>
       </c>
       <c r="H18">
-        <v>65.12073789104701</v>
+        <v>65.12073789104718</v>
       </c>
       <c r="I18">
-        <v>20.04070407488826</v>
+        <v>20.04070407488824</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -905,25 +905,25 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>6.72649699259304</v>
+        <v>6.726496992592991</v>
       </c>
       <c r="D19">
         <v>8.46838894269027</v>
       </c>
       <c r="E19">
-        <v>21.41606585802264</v>
+        <v>21.41606585802263</v>
       </c>
       <c r="F19">
-        <v>88.99397247229334</v>
+        <v>88.99397247229297</v>
       </c>
       <c r="G19">
-        <v>70.14499381812567</v>
+        <v>70.14499381812537</v>
       </c>
       <c r="H19">
-        <v>64.68444422556777</v>
+        <v>64.68444422556747</v>
       </c>
       <c r="I19">
-        <v>19.90360588801375</v>
+        <v>19.90360588801372</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -934,25 +934,25 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>6.943773103147182</v>
+        <v>6.943773103147172</v>
       </c>
       <c r="D20">
-        <v>8.7250286782413</v>
+        <v>8.725028678241323</v>
       </c>
       <c r="E20">
-        <v>22.0995620847749</v>
+        <v>22.09956208477488</v>
       </c>
       <c r="F20">
-        <v>91.72414159861366</v>
+        <v>91.72414159861368</v>
       </c>
       <c r="G20">
-        <v>72.30264209673561</v>
+        <v>72.30264209673562</v>
       </c>
       <c r="H20">
-        <v>66.67060407692371</v>
+        <v>66.67060407692374</v>
       </c>
       <c r="I20">
-        <v>20.52873811972077</v>
+        <v>20.52873811972076</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -963,25 +963,25 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>7.75532854236729</v>
+        <v>7.755328542367323</v>
       </c>
       <c r="D21">
-        <v>9.675523866812464</v>
+        <v>9.67552386681256</v>
       </c>
       <c r="E21">
-        <v>24.63699655835057</v>
+        <v>24.63699655835065</v>
       </c>
       <c r="F21">
-        <v>101.7465119218697</v>
+        <v>101.74651192187</v>
       </c>
       <c r="G21">
-        <v>80.22319389287188</v>
+        <v>80.22319389287205</v>
       </c>
       <c r="H21">
-        <v>73.9569357472984</v>
+        <v>73.95693574729857</v>
       </c>
       <c r="I21">
-        <v>22.84802526605601</v>
+        <v>22.84802526605602</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -992,25 +992,25 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>8.412621060877385</v>
+        <v>8.41262106087731</v>
       </c>
       <c r="D22">
-        <v>10.43400109247951</v>
+        <v>10.43400109247962</v>
       </c>
       <c r="E22">
-        <v>26.67139819028568</v>
+        <v>26.67139819028558</v>
       </c>
       <c r="F22">
-        <v>109.6193194511094</v>
+        <v>109.6193194511091</v>
       </c>
       <c r="G22">
-        <v>86.44662098170133</v>
+        <v>86.44662098170114</v>
       </c>
       <c r="H22">
-        <v>79.67597325444339</v>
+        <v>79.67597325444324</v>
       </c>
       <c r="I22">
-        <v>24.70547781542878</v>
+        <v>24.70547781542876</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1021,25 +1021,25 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>8.042761607805723</v>
+        <v>8.042761607805604</v>
       </c>
       <c r="D23">
-        <v>10.00860910027881</v>
+        <v>10.00860910027889</v>
       </c>
       <c r="E23">
-        <v>25.52911861060925</v>
+        <v>25.52911861060937</v>
       </c>
       <c r="F23">
-        <v>105.219379277465</v>
+        <v>105.2193792774655</v>
       </c>
       <c r="G23">
-        <v>82.96817575786729</v>
+        <v>82.96817575786775</v>
       </c>
       <c r="H23">
-        <v>76.48018035156494</v>
+        <v>76.48018035156539</v>
       </c>
       <c r="I23">
-        <v>23.6628093232761</v>
+        <v>23.66280932327623</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1050,25 +1050,25 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>6.931626032279152</v>
+        <v>6.931626032279089</v>
       </c>
       <c r="D24">
-        <v>8.710702781137691</v>
+        <v>8.710702781137655</v>
       </c>
       <c r="E24">
-        <v>22.06139334559382</v>
+        <v>22.06139334559389</v>
       </c>
       <c r="F24">
-        <v>91.57198142221917</v>
+        <v>91.57198142221947</v>
       </c>
       <c r="G24">
-        <v>72.18239291177977</v>
+        <v>72.18239291177997</v>
       </c>
       <c r="H24">
-        <v>66.55992572204526</v>
+        <v>66.55992572204551</v>
       </c>
       <c r="I24">
-        <v>20.49383269995834</v>
+        <v>20.4938326999584</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>5.94717919563785</v>
+        <v>5.947179195637772</v>
       </c>
       <c r="D25">
-        <v>7.54185679419798</v>
+        <v>7.541856794197945</v>
       </c>
       <c r="E25">
-        <v>18.95234656876574</v>
+        <v>18.95234656876573</v>
       </c>
       <c r="F25">
-        <v>79.07147566429475</v>
+        <v>79.07147566429484</v>
       </c>
       <c r="G25">
-        <v>62.30136596747333</v>
+        <v>62.30136596747335</v>
       </c>
       <c r="H25">
-        <v>57.46014079583868</v>
+        <v>57.46014079583873</v>
       </c>
       <c r="I25">
-        <v>17.64908534664815</v>
+        <v>17.64908534664808</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,700 +406,775 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.273205236902395</v>
+        <v>5.262228444639297</v>
       </c>
       <c r="D2">
-        <v>6.734551180445258</v>
+        <v>6.720937337847564</v>
       </c>
       <c r="E2">
-        <v>16.80868059671548</v>
+        <v>16.80856677832333</v>
       </c>
       <c r="F2">
-        <v>70.36241697123489</v>
+        <v>70.29724519231119</v>
       </c>
       <c r="G2">
-        <v>55.41195696318435</v>
+        <v>55.49228225758596</v>
       </c>
       <c r="H2">
-        <v>51.10974091093922</v>
+        <v>55.1728764243011</v>
       </c>
       <c r="I2">
-        <v>15.68611647820299</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>51.06079234452798</v>
+      </c>
+      <c r="J2">
+        <v>15.67983138040711</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.822114252286392</v>
+        <v>4.81226496497339</v>
       </c>
       <c r="D3">
-        <v>6.192012722669505</v>
+        <v>6.1798262247508</v>
       </c>
       <c r="E3">
-        <v>15.36848066509626</v>
+        <v>15.36898928940128</v>
       </c>
       <c r="F3">
-        <v>64.48862575736234</v>
+        <v>64.43136986116956</v>
       </c>
       <c r="G3">
-        <v>50.76083788366632</v>
+        <v>50.83643022134976</v>
       </c>
       <c r="H3">
-        <v>46.81988867908207</v>
+        <v>50.57158417109265</v>
       </c>
       <c r="I3">
-        <v>14.36670149345549</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>46.77679756760172</v>
+      </c>
+      <c r="J3">
+        <v>14.36150753452965</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4.543078116247838</v>
+        <v>4.533895386923452</v>
       </c>
       <c r="D4">
-        <v>5.85580180928356</v>
+        <v>5.844466563373055</v>
       </c>
       <c r="E4">
-        <v>14.47575993724423</v>
+        <v>14.47654979376775</v>
       </c>
       <c r="F4">
-        <v>60.84402394759616</v>
+        <v>60.7912725827286</v>
       </c>
       <c r="G4">
-        <v>47.87222854092033</v>
+        <v>47.94456346274163</v>
       </c>
       <c r="H4">
-        <v>44.15451579220289</v>
+        <v>47.71759646503473</v>
       </c>
       <c r="I4">
-        <v>13.54862004243256</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>44.11476445626683</v>
+      </c>
+      <c r="J4">
+        <v>13.54400778030562</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.428325886638887</v>
+        <v>4.419411499585626</v>
       </c>
       <c r="D5">
-        <v>5.717442530404213</v>
+        <v>5.706451667963941</v>
       </c>
       <c r="E5">
-        <v>14.10826794366825</v>
+        <v>14.10915378496176</v>
       </c>
       <c r="F5">
-        <v>59.34372574442089</v>
+        <v>59.2927511342287</v>
       </c>
       <c r="G5">
-        <v>46.68240287014177</v>
+        <v>46.75333592511296</v>
       </c>
       <c r="H5">
-        <v>43.05637273946042</v>
+        <v>46.54302296541404</v>
       </c>
       <c r="I5">
-        <v>13.21180439992878</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>43.01794016248996</v>
+      </c>
+      <c r="J5">
+        <v>13.20741370280536</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.409195489233713</v>
+        <v>4.400325535733333</v>
       </c>
       <c r="D6">
-        <v>5.694372454026205</v>
+        <v>5.683438714472162</v>
       </c>
       <c r="E6">
-        <v>14.04698366209062</v>
+        <v>14.04788446978164</v>
       </c>
       <c r="F6">
-        <v>59.09355716793849</v>
+        <v>59.04287473306751</v>
       </c>
       <c r="G6">
-        <v>46.48395823520745</v>
+        <v>46.55465432143239</v>
       </c>
       <c r="H6">
-        <v>42.87320344098133</v>
+        <v>46.34718406693859</v>
       </c>
       <c r="I6">
-        <v>13.15563307737161</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>42.83498780559711</v>
+      </c>
+      <c r="J6">
+        <v>13.15127838877559</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4.541535347398931</v>
+        <v>4.532356246879899</v>
       </c>
       <c r="D7">
-        <v>5.853941968161392</v>
+        <v>5.842611372698827</v>
       </c>
       <c r="E7">
-        <v>14.47082060369674</v>
+        <v>14.47161182292888</v>
       </c>
       <c r="F7">
-        <v>60.82385772752443</v>
+        <v>60.77113053010063</v>
       </c>
       <c r="G7">
-        <v>47.85623856419556</v>
+        <v>47.92855486695309</v>
       </c>
       <c r="H7">
-        <v>44.13975900019756</v>
+        <v>47.70180737305972</v>
       </c>
       <c r="I7">
-        <v>13.54409320697208</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>44.10002559647042</v>
+      </c>
+      <c r="J7">
+        <v>13.53948398846993</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>5.11773565267567</v>
+        <v>5.107155269659816</v>
       </c>
       <c r="D8">
-        <v>6.547727663446619</v>
+        <v>6.534613922001845</v>
       </c>
       <c r="E8">
-        <v>16.31275826624438</v>
+        <v>16.31288500759564</v>
       </c>
       <c r="F8">
-        <v>68.34118246749341</v>
+        <v>68.27883623225873</v>
       </c>
       <c r="G8">
-        <v>53.81196938716892</v>
+        <v>53.89074612615018</v>
       </c>
       <c r="H8">
-        <v>49.63427395408267</v>
+        <v>53.58930936604997</v>
       </c>
       <c r="I8">
-        <v>15.23183883504006</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>49.58741457724251</v>
+      </c>
+      <c r="J8">
+        <v>15.22595320602623</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>6.265894957936857</v>
+        <v>6.252118701550187</v>
       </c>
       <c r="D9">
-        <v>7.921818544636013</v>
+        <v>7.904723284679354</v>
       </c>
       <c r="E9">
-        <v>19.96207922166479</v>
+        <v>19.9595540798128</v>
       </c>
       <c r="F9">
-        <v>83.15180453219425</v>
+        <v>83.06539069826495</v>
       </c>
       <c r="G9">
-        <v>65.52731910117929</v>
+        <v>65.61478559891526</v>
       </c>
       <c r="H9">
-        <v>60.43212498326788</v>
+        <v>65.196978150942</v>
       </c>
       <c r="I9">
-        <v>18.57329088166956</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>60.3675193784111</v>
+      </c>
+      <c r="J9">
+        <v>18.5636668989366</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>7.204873802818073</v>
+        <v>7.187722798780332</v>
       </c>
       <c r="D10">
-        <v>9.032300717993817</v>
+        <v>9.011122606728685</v>
       </c>
       <c r="E10">
-        <v>22.91871314999423</v>
+        <v>22.91160377136873</v>
       </c>
       <c r="F10">
-        <v>94.9804629149975</v>
+        <v>94.86573384045181</v>
       </c>
       <c r="G10">
-        <v>74.87601106721797</v>
+        <v>74.96321806467039</v>
       </c>
       <c r="H10">
-        <v>69.03875857680453</v>
+        <v>74.47159824337082</v>
       </c>
       <c r="I10">
-        <v>21.27773229356243</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>68.95338595621804</v>
+      </c>
+      <c r="J10">
+        <v>21.26287154503669</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>7.697390241124941</v>
+        <v>7.677925084077729</v>
       </c>
       <c r="D11">
-        <v>9.608138982626983</v>
+        <v>9.584229591410466</v>
       </c>
       <c r="E11">
-        <v>24.45672775546127</v>
+        <v>24.44553288888449</v>
       </c>
       <c r="F11">
-        <v>101.0412174967096</v>
+        <v>100.9057492323902</v>
       </c>
       <c r="G11">
-        <v>79.66576670691514</v>
+        <v>79.74789833628807</v>
       </c>
       <c r="H11">
-        <v>73.44440597713513</v>
+        <v>79.22305346076458</v>
       </c>
       <c r="I11">
-        <v>22.68333969124712</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>73.34387390670017</v>
+      </c>
+      <c r="J11">
+        <v>22.66421268678267</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>7.902668375199147</v>
+        <v>7.882056149062428</v>
       </c>
       <c r="D12">
-        <v>9.846523075226344</v>
+        <v>9.821278495489565</v>
       </c>
       <c r="E12">
-        <v>25.09476716330198</v>
+        <v>25.08131316819076</v>
       </c>
       <c r="F12">
-        <v>103.5322695244756</v>
+        <v>103.3862287572326</v>
       </c>
       <c r="G12">
-        <v>81.63462206053491</v>
+        <v>81.71304143489341</v>
       </c>
       <c r="H12">
-        <v>75.2544868949374</v>
+        <v>81.1752859630402</v>
       </c>
       <c r="I12">
-        <v>23.26615852745435</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>75.14623863115646</v>
+      </c>
+      <c r="J12">
+        <v>23.24475009454868</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>7.857344870182156</v>
+        <v>7.836997458316411</v>
       </c>
       <c r="D13">
-        <v>9.793978248366928</v>
+        <v>9.769040889079928</v>
       </c>
       <c r="E13">
-        <v>24.95405381782659</v>
+        <v>24.94113365378923</v>
       </c>
       <c r="F13">
-        <v>102.9841675936956</v>
+        <v>102.8405821376023</v>
       </c>
       <c r="G13">
-        <v>81.20140289931797</v>
+        <v>81.28074156666084</v>
       </c>
       <c r="H13">
-        <v>74.85625100068542</v>
+        <v>80.74579197970995</v>
       </c>
       <c r="I13">
-        <v>23.13763947402067</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>74.74979410558561</v>
+      </c>
+      <c r="J13">
+        <v>23.1167664630002</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>7.713808503239313</v>
+        <v>7.694256287273059</v>
       </c>
       <c r="D14">
-        <v>9.627242198016326</v>
+        <v>9.603231058343237</v>
       </c>
       <c r="E14">
-        <v>24.50782610053037</v>
+        <v>24.49646477034533</v>
       </c>
       <c r="F14">
-        <v>101.2412534549772</v>
+        <v>101.1049887580475</v>
       </c>
       <c r="G14">
-        <v>79.82386325635778</v>
+        <v>79.90573852034424</v>
       </c>
       <c r="H14">
-        <v>73.58977314172994</v>
+        <v>79.3798417066284</v>
       </c>
       <c r="I14">
-        <v>22.73002231848077</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>73.48865955980753</v>
+      </c>
+      <c r="J14">
+        <v>22.71072571324835</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>7.628790722335495</v>
+        <v>7.609681357210768</v>
       </c>
       <c r="D15">
-        <v>9.528253337976448</v>
+        <v>9.504760499134541</v>
       </c>
       <c r="E15">
-        <v>24.24310199421339</v>
+        <v>24.23257842639471</v>
       </c>
       <c r="F15">
-        <v>100.2039562362887</v>
+        <v>100.0717317741144</v>
       </c>
       <c r="G15">
-        <v>79.00405483017023</v>
+        <v>79.08718826467835</v>
       </c>
       <c r="H15">
-        <v>72.83593598845563</v>
+        <v>78.56677592394283</v>
       </c>
       <c r="I15">
-        <v>22.48816241705725</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>72.73777281151754</v>
+      </c>
+      <c r="J15">
+        <v>22.46972212728063</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>7.174601897405415</v>
+        <v>7.157577458304145</v>
       </c>
       <c r="D16">
-        <v>8.99674249090676</v>
+        <v>8.975715306139927</v>
       </c>
       <c r="E16">
-        <v>22.8238696970749</v>
+        <v>22.81696335363661</v>
       </c>
       <c r="F16">
-        <v>94.60437318099558</v>
+        <v>94.49075133738751</v>
       </c>
       <c r="G16">
-        <v>74.57880078164803</v>
+        <v>74.6661801170312</v>
       </c>
       <c r="H16">
-        <v>68.76528882846813</v>
+        <v>74.17671354455119</v>
       </c>
       <c r="I16">
-        <v>21.19102399916929</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>68.68072657938093</v>
+      </c>
+      <c r="J16">
+        <v>21.17638199578827</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>6.916940306174914</v>
+        <v>6.900936117530517</v>
       </c>
       <c r="D17">
-        <v>8.693379334403405</v>
+        <v>8.673574924417339</v>
       </c>
       <c r="E17">
-        <v>22.01524069314722</v>
+        <v>22.00988623107712</v>
       </c>
       <c r="F17">
-        <v>91.38794422685596</v>
+        <v>91.2831290887962</v>
       </c>
       <c r="G17">
-        <v>72.03695160379515</v>
+        <v>72.12527922653965</v>
       </c>
       <c r="H17">
-        <v>66.426058167581</v>
+        <v>71.65470503653671</v>
       </c>
       <c r="I17">
-        <v>20.45162531313657</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>66.34794587481181</v>
+      </c>
+      <c r="J17">
+        <v>20.43868584488501</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>6.774099875821289</v>
+        <v>6.758622597533486</v>
       </c>
       <c r="D18">
-        <v>8.524685430555305</v>
+        <v>8.505516871692169</v>
       </c>
       <c r="E18">
-        <v>21.56594963273218</v>
+        <v>21.56133536336075</v>
       </c>
       <c r="F18">
-        <v>89.59362722409153</v>
+        <v>89.49327207222669</v>
       </c>
       <c r="G18">
-        <v>70.61891055080125</v>
+        <v>70.70740804212106</v>
       </c>
       <c r="H18">
-        <v>65.12073789104718</v>
+        <v>70.24776430664753</v>
       </c>
       <c r="I18">
-        <v>20.04070407488824</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>65.04589529663868</v>
+      </c>
+      <c r="J18">
+        <v>20.02859989032572</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>6.726496992592991</v>
+        <v>6.711189941044261</v>
       </c>
       <c r="D19">
-        <v>8.46838894269027</v>
+        <v>8.449426446160953</v>
       </c>
       <c r="E19">
-        <v>21.41606585802263</v>
+        <v>21.41168150579009</v>
       </c>
       <c r="F19">
-        <v>88.99397247229297</v>
+        <v>88.89504454116447</v>
       </c>
       <c r="G19">
-        <v>70.14499381812537</v>
+        <v>70.23349790776051</v>
       </c>
       <c r="H19">
-        <v>64.68444422556747</v>
+        <v>69.77757308499196</v>
       </c>
       <c r="I19">
-        <v>19.90360588801372</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>64.61064845219531</v>
+      </c>
+      <c r="J19">
+        <v>19.89176492984774</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>6.943773103147172</v>
+        <v>6.927667063215617</v>
       </c>
       <c r="D20">
-        <v>8.725028678241323</v>
+        <v>8.705101702785633</v>
       </c>
       <c r="E20">
-        <v>22.09956208477488</v>
+        <v>22.0940596409347</v>
       </c>
       <c r="F20">
-        <v>91.72414159861368</v>
+        <v>91.6184571820381</v>
       </c>
       <c r="G20">
-        <v>72.30264209673562</v>
+        <v>72.39091123691999</v>
       </c>
       <c r="H20">
-        <v>66.67060407692374</v>
+        <v>71.9183210701985</v>
       </c>
       <c r="I20">
-        <v>20.52873811972076</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>66.59185476508169</v>
+      </c>
+      <c r="J20">
+        <v>20.51563366885294</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>7.755328542367323</v>
+        <v>7.735552726415722</v>
       </c>
       <c r="D21">
-        <v>9.67552386681256</v>
+        <v>9.651251714921745</v>
       </c>
       <c r="E21">
-        <v>24.63699655835065</v>
+        <v>24.62520381052929</v>
       </c>
       <c r="F21">
-        <v>101.74651192187</v>
+        <v>101.6081969798757</v>
       </c>
       <c r="G21">
-        <v>80.22319389287205</v>
+        <v>80.30439098220062</v>
       </c>
       <c r="H21">
-        <v>73.95693574729857</v>
+        <v>79.77584912980815</v>
       </c>
       <c r="I21">
-        <v>22.84802526605602</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>73.85432538109671</v>
+      </c>
+      <c r="J21">
+        <v>22.82829030462825</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>8.41262106087731</v>
+        <v>8.388423571165267</v>
       </c>
       <c r="D22">
-        <v>10.43400109247962</v>
+        <v>10.40465059798297</v>
       </c>
       <c r="E22">
-        <v>26.67139819028558</v>
+        <v>26.65011056723209</v>
       </c>
       <c r="F22">
-        <v>109.6193194511091</v>
+        <v>109.4393705129146</v>
       </c>
       <c r="G22">
-        <v>86.44662098170114</v>
+        <v>86.50955588557986</v>
       </c>
       <c r="H22">
-        <v>79.67597325444324</v>
+        <v>85.94187568942296</v>
       </c>
       <c r="I22">
-        <v>24.70547781542876</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>79.54301579406322</v>
+      </c>
+      <c r="J22">
+        <v>24.67639129787073</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>8.042761607805604</v>
+        <v>8.021283614265794</v>
       </c>
       <c r="D23">
-        <v>10.00860910027889</v>
+        <v>9.982364190888704</v>
       </c>
       <c r="E23">
-        <v>25.52911861060937</v>
+        <v>25.51387166340228</v>
       </c>
       <c r="F23">
-        <v>105.2193792774655</v>
+        <v>105.0652567372067</v>
       </c>
       <c r="G23">
-        <v>82.96817575786775</v>
+        <v>83.04334919418226</v>
       </c>
       <c r="H23">
-        <v>76.48018035156539</v>
+        <v>82.49707619879769</v>
       </c>
       <c r="I23">
-        <v>23.66280932327623</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>76.36603805417749</v>
+      </c>
+      <c r="J23">
+        <v>23.63961659942501</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>6.931626032279089</v>
+        <v>6.915566217579149</v>
       </c>
       <c r="D24">
-        <v>8.710702781137655</v>
+        <v>8.690831418293939</v>
       </c>
       <c r="E24">
-        <v>22.06139334559389</v>
+        <v>22.05595825807358</v>
       </c>
       <c r="F24">
-        <v>91.57198142221947</v>
+        <v>91.46669180979549</v>
       </c>
       <c r="G24">
-        <v>72.18239291177997</v>
+        <v>72.27068961145588</v>
       </c>
       <c r="H24">
-        <v>66.55992572204551</v>
+        <v>71.79901063125878</v>
       </c>
       <c r="I24">
-        <v>20.4938326999584</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>66.48146571760714</v>
+      </c>
+      <c r="J24">
+        <v>20.48080326635274</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>5.947179195637772</v>
+        <v>5.934362454265269</v>
       </c>
       <c r="D25">
-        <v>7.541856794197945</v>
+        <v>7.525945020104956</v>
       </c>
       <c r="E25">
-        <v>18.95234656876573</v>
+        <v>18.95079161623464</v>
       </c>
       <c r="F25">
-        <v>79.07147566429484</v>
+        <v>78.99259177257981</v>
       </c>
       <c r="G25">
-        <v>62.30136596747335</v>
+        <v>62.38714948364728</v>
       </c>
       <c r="H25">
-        <v>57.46014079583873</v>
+        <v>61.99824141585797</v>
       </c>
       <c r="I25">
-        <v>17.64908534664808</v>
-      </c>
-      <c r="K25">
+        <v>57.40107622590288</v>
+      </c>
+      <c r="J25">
+        <v>17.64070999390993</v>
+      </c>
+      <c r="L25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,772 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
-        <v>5.262228444639297</v>
+        <v>9.365840552543066</v>
       </c>
       <c r="D2">
-        <v>6.720937337847564</v>
+        <v>5.688309780341411</v>
       </c>
       <c r="E2">
-        <v>16.80856677832333</v>
+        <v>7.454543942050123</v>
       </c>
       <c r="F2">
-        <v>70.29724519231119</v>
+        <v>68.51754768638078</v>
       </c>
       <c r="G2">
-        <v>55.49228225758596</v>
+        <v>1.978054675646233</v>
       </c>
       <c r="H2">
-        <v>55.1728764243011</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>51.06079234452798</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>15.67983138040711</v>
+        <v>7.355039609623558</v>
+      </c>
+      <c r="K2">
+        <v>98.90059774331824</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.79858851131755</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
-        <v>4.81226496497339</v>
+        <v>8.936641441597994</v>
       </c>
       <c r="D3">
-        <v>6.1798262247508</v>
+        <v>4.693701454721912</v>
       </c>
       <c r="E3">
-        <v>15.36898928940128</v>
+        <v>7.355165042862588</v>
       </c>
       <c r="F3">
-        <v>64.43136986116956</v>
+        <v>63.81959017064628</v>
       </c>
       <c r="G3">
-        <v>50.83643022134976</v>
+        <v>2.044737546263695</v>
       </c>
       <c r="H3">
-        <v>50.57158417109265</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>46.77679756760172</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>14.36150753452965</v>
+        <v>7.417938096558641</v>
+      </c>
+      <c r="K3">
+        <v>90.93352603589301</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>4.830496206297901</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
-        <v>4.533895386923452</v>
+        <v>8.700488323910031</v>
       </c>
       <c r="D4">
-        <v>5.844466563373055</v>
+        <v>4.153625892237956</v>
       </c>
       <c r="E4">
-        <v>14.47654979376775</v>
+        <v>7.30099093926848</v>
       </c>
       <c r="F4">
-        <v>60.7912725827286</v>
+        <v>61.6231663386751</v>
       </c>
       <c r="G4">
-        <v>47.94456346274163</v>
+        <v>2.08201279487653</v>
       </c>
       <c r="H4">
-        <v>47.71759646503473</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>44.11476445626683</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>13.54400778030562</v>
+        <v>7.482567494340951</v>
+      </c>
+      <c r="K4">
+        <v>86.19226897924118</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>4.848647244009812</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
-        <v>4.419411499585626</v>
+        <v>8.6092792612927</v>
       </c>
       <c r="D5">
-        <v>5.706451667963941</v>
+        <v>3.946173288182825</v>
       </c>
       <c r="E5">
-        <v>14.10915378496176</v>
+        <v>7.28029949419629</v>
       </c>
       <c r="F5">
-        <v>59.2927511342287</v>
+        <v>60.85996236102168</v>
       </c>
       <c r="G5">
-        <v>46.75333592511296</v>
+        <v>2.096627507870319</v>
       </c>
       <c r="H5">
-        <v>46.54302296541404</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>43.01794016248996</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>13.20741370280536</v>
+        <v>7.513762048619579</v>
+      </c>
+      <c r="K5">
+        <v>84.27512066622411</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4.855868022400191</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
-        <v>4.400325535733333</v>
+        <v>8.594399192906597</v>
       </c>
       <c r="D6">
-        <v>5.683438714472162</v>
+        <v>3.912388764138393</v>
       </c>
       <c r="E6">
-        <v>14.04788446978164</v>
+        <v>7.276940121685989</v>
       </c>
       <c r="F6">
-        <v>59.04287473306751</v>
+        <v>60.74030235866573</v>
       </c>
       <c r="G6">
-        <v>46.55465432143239</v>
+        <v>2.099026764635939</v>
       </c>
       <c r="H6">
-        <v>46.34718406693859</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>42.83498780559711</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>13.15127838877559</v>
+        <v>7.519200133398956</v>
+      </c>
+      <c r="K6">
+        <v>83.95721559764591</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4.857060241913805</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
-        <v>4.532356246879899</v>
+        <v>8.699239717681928</v>
       </c>
       <c r="D7">
-        <v>5.842611372698827</v>
+        <v>4.150781758983422</v>
       </c>
       <c r="E7">
-        <v>14.47161182292888</v>
+        <v>7.300706619870835</v>
       </c>
       <c r="F7">
-        <v>60.77113053010063</v>
+        <v>61.61238163516295</v>
       </c>
       <c r="G7">
-        <v>47.92855486695309</v>
+        <v>2.082211880838631</v>
       </c>
       <c r="H7">
-        <v>47.70180737305972</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>44.10002559647042</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>13.53948398846993</v>
+        <v>7.4829701888752</v>
+      </c>
+      <c r="K7">
+        <v>86.16637528967992</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>4.848745156379807</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
-        <v>5.107155269659816</v>
+        <v>9.210692359302881</v>
       </c>
       <c r="D8">
-        <v>6.534613922001845</v>
+        <v>5.326530236809673</v>
       </c>
       <c r="E8">
-        <v>16.31288500759564</v>
+        <v>7.418597210287448</v>
       </c>
       <c r="F8">
-        <v>68.27883623225873</v>
+        <v>66.72303507087042</v>
       </c>
       <c r="G8">
-        <v>53.89074612615018</v>
+        <v>2.002082854711233</v>
       </c>
       <c r="H8">
-        <v>53.58930936604997</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>49.58741457724251</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>15.22595320602623</v>
+        <v>7.370001849836541</v>
+      </c>
+      <c r="K8">
+        <v>96.10399175839254</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4.810037815792042</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
-        <v>6.252118701550187</v>
+        <v>10.66520614938559</v>
       </c>
       <c r="D9">
-        <v>7.904723284679354</v>
+        <v>8.87520791750039</v>
       </c>
       <c r="E9">
-        <v>19.9595540798128</v>
+        <v>7.742177592449065</v>
       </c>
       <c r="F9">
-        <v>83.06539069826495</v>
+        <v>88.25974925793459</v>
       </c>
       <c r="G9">
-        <v>65.61478559891526</v>
+        <v>1.77253010555553</v>
       </c>
       <c r="H9">
-        <v>65.196978150942</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>60.3675193784111</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>18.5636668989366</v>
+        <v>7.559678341538477</v>
+      </c>
+      <c r="K9">
+        <v>120.4891772149449</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>4.698633345979767</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
-        <v>7.187722798780332</v>
+        <v>10.66520614938559</v>
       </c>
       <c r="D10">
-        <v>9.011122606728685</v>
+        <v>8.87520791750039</v>
       </c>
       <c r="E10">
-        <v>22.91160377136873</v>
+        <v>7.742177592449065</v>
       </c>
       <c r="F10">
-        <v>94.86573384045181</v>
+        <v>88.25974925793459</v>
       </c>
       <c r="G10">
-        <v>74.96321806467039</v>
+        <v>1.77253010555553</v>
       </c>
       <c r="H10">
-        <v>74.47159824337082</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>68.95338595621804</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>21.26287154503669</v>
+        <v>7.559678341538477</v>
+      </c>
+      <c r="K10">
+        <v>120.4891772149449</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>4.698633345979767</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
-        <v>7.677925084077729</v>
+        <v>10.66520614938559</v>
       </c>
       <c r="D11">
-        <v>9.584229591410466</v>
+        <v>8.87520791750039</v>
       </c>
       <c r="E11">
-        <v>24.44553288888449</v>
+        <v>7.742177592449065</v>
       </c>
       <c r="F11">
-        <v>100.9057492323902</v>
+        <v>88.25974925793459</v>
       </c>
       <c r="G11">
-        <v>79.74789833628807</v>
+        <v>1.77253010555553</v>
       </c>
       <c r="H11">
-        <v>79.22305346076458</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>73.34387390670017</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>22.66421268678267</v>
+        <v>7.559678341538477</v>
+      </c>
+      <c r="K11">
+        <v>120.4891772149449</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>4.698633345979767</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
-        <v>7.882056149062428</v>
+        <v>10.66520614938559</v>
       </c>
       <c r="D12">
-        <v>9.821278495489565</v>
+        <v>8.87520791750039</v>
       </c>
       <c r="E12">
-        <v>25.08131316819076</v>
+        <v>7.742177592449065</v>
       </c>
       <c r="F12">
-        <v>103.3862287572326</v>
+        <v>88.25974925793459</v>
       </c>
       <c r="G12">
-        <v>81.71304143489341</v>
+        <v>1.77253010555553</v>
       </c>
       <c r="H12">
-        <v>81.1752859630402</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>75.14623863115646</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>23.24475009454868</v>
+        <v>7.559678341538477</v>
+      </c>
+      <c r="K12">
+        <v>120.4891772149449</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>4.698633345979767</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
-        <v>7.836997458316411</v>
+        <v>10.66520614938559</v>
       </c>
       <c r="D13">
-        <v>9.769040889079928</v>
+        <v>8.87520791750039</v>
       </c>
       <c r="E13">
-        <v>24.94113365378923</v>
+        <v>7.742177592449065</v>
       </c>
       <c r="F13">
-        <v>102.8405821376023</v>
+        <v>88.25974925793459</v>
       </c>
       <c r="G13">
-        <v>81.28074156666084</v>
+        <v>1.77253010555553</v>
       </c>
       <c r="H13">
-        <v>80.74579197970995</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>74.74979410558561</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>23.1167664630002</v>
+        <v>7.559678341538477</v>
+      </c>
+      <c r="K13">
+        <v>120.4891772149449</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4.698633345979767</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
-        <v>7.694256287273059</v>
+        <v>10.66520614938559</v>
       </c>
       <c r="D14">
-        <v>9.603231058343237</v>
+        <v>8.87520791750039</v>
       </c>
       <c r="E14">
-        <v>24.49646477034533</v>
+        <v>7.742177592449065</v>
       </c>
       <c r="F14">
-        <v>101.1049887580475</v>
+        <v>88.25974925793459</v>
       </c>
       <c r="G14">
-        <v>79.90573852034424</v>
+        <v>1.77253010555553</v>
       </c>
       <c r="H14">
-        <v>79.3798417066284</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>73.48865955980753</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>22.71072571324835</v>
+        <v>7.559678341538477</v>
+      </c>
+      <c r="K14">
+        <v>120.4891772149449</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4.698633345979767</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
-        <v>7.609681357210768</v>
+        <v>10.66520614938559</v>
       </c>
       <c r="D15">
-        <v>9.504760499134541</v>
+        <v>8.87520791750039</v>
       </c>
       <c r="E15">
-        <v>24.23257842639471</v>
+        <v>7.742177592449065</v>
       </c>
       <c r="F15">
-        <v>100.0717317741144</v>
+        <v>88.25974925793459</v>
       </c>
       <c r="G15">
-        <v>79.08718826467835</v>
+        <v>1.77253010555553</v>
       </c>
       <c r="H15">
-        <v>78.56677592394283</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>72.73777281151754</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>22.46972212728063</v>
+        <v>7.559678341538477</v>
+      </c>
+      <c r="K15">
+        <v>120.4891772149449</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4.698633345979767</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
-        <v>7.157577458304145</v>
+        <v>10.66520614938559</v>
       </c>
       <c r="D16">
-        <v>8.975715306139927</v>
+        <v>8.87520791750039</v>
       </c>
       <c r="E16">
-        <v>22.81696335363661</v>
+        <v>7.742177592449065</v>
       </c>
       <c r="F16">
-        <v>94.49075133738751</v>
+        <v>88.25974925793459</v>
       </c>
       <c r="G16">
-        <v>74.6661801170312</v>
+        <v>1.77253010555553</v>
       </c>
       <c r="H16">
-        <v>74.17671354455119</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>68.68072657938093</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>21.17638199578827</v>
+        <v>7.559678341538477</v>
+      </c>
+      <c r="K16">
+        <v>120.4891772149449</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>4.698633345979767</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
-        <v>6.900936117530517</v>
+        <v>10.66520614938559</v>
       </c>
       <c r="D17">
-        <v>8.673574924417339</v>
+        <v>8.87520791750039</v>
       </c>
       <c r="E17">
-        <v>22.00988623107712</v>
+        <v>7.742177592449065</v>
       </c>
       <c r="F17">
-        <v>91.2831290887962</v>
+        <v>88.25974925793459</v>
       </c>
       <c r="G17">
-        <v>72.12527922653965</v>
+        <v>1.77253010555553</v>
       </c>
       <c r="H17">
-        <v>71.65470503653671</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>66.34794587481181</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>20.43868584488501</v>
+        <v>7.559678341538477</v>
+      </c>
+      <c r="K17">
+        <v>120.4891772149449</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>4.698633345979767</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
-        <v>6.758622597533486</v>
+        <v>10.66520614938559</v>
       </c>
       <c r="D18">
-        <v>8.505516871692169</v>
+        <v>8.87520791750039</v>
       </c>
       <c r="E18">
-        <v>21.56133536336075</v>
+        <v>7.742177592449065</v>
       </c>
       <c r="F18">
-        <v>89.49327207222669</v>
+        <v>88.25974925793459</v>
       </c>
       <c r="G18">
-        <v>70.70740804212106</v>
+        <v>1.77253010555553</v>
       </c>
       <c r="H18">
-        <v>70.24776430664753</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>65.04589529663868</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>20.02859989032572</v>
+        <v>7.559678341538477</v>
+      </c>
+      <c r="K18">
+        <v>120.4891772149449</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>4.698633345979767</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
-        <v>6.711189941044261</v>
+        <v>10.66520614938559</v>
       </c>
       <c r="D19">
-        <v>8.449426446160953</v>
+        <v>8.87520791750039</v>
       </c>
       <c r="E19">
-        <v>21.41168150579009</v>
+        <v>7.742177592449065</v>
       </c>
       <c r="F19">
-        <v>88.89504454116447</v>
+        <v>88.25974925793459</v>
       </c>
       <c r="G19">
-        <v>70.23349790776051</v>
+        <v>1.77253010555553</v>
       </c>
       <c r="H19">
-        <v>69.77757308499196</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>64.61064845219531</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>19.89176492984774</v>
+        <v>7.559678341538477</v>
+      </c>
+      <c r="K19">
+        <v>120.4891772149449</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>4.698633345979767</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
-        <v>6.927667063215617</v>
+        <v>10.66520614938559</v>
       </c>
       <c r="D20">
-        <v>8.705101702785633</v>
+        <v>8.87520791750039</v>
       </c>
       <c r="E20">
-        <v>22.0940596409347</v>
+        <v>7.742177592449065</v>
       </c>
       <c r="F20">
-        <v>91.6184571820381</v>
+        <v>88.25974925793459</v>
       </c>
       <c r="G20">
-        <v>72.39091123691999</v>
+        <v>1.77253010555553</v>
       </c>
       <c r="H20">
-        <v>71.9183210701985</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>66.59185476508169</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>20.51563366885294</v>
+        <v>7.559678341538477</v>
+      </c>
+      <c r="K20">
+        <v>120.4891772149449</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>4.698633345979767</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
-        <v>7.735552726415722</v>
+        <v>10.66520614938559</v>
       </c>
       <c r="D21">
-        <v>9.651251714921745</v>
+        <v>8.87520791750039</v>
       </c>
       <c r="E21">
-        <v>24.62520381052929</v>
+        <v>7.742177592449065</v>
       </c>
       <c r="F21">
-        <v>101.6081969798757</v>
+        <v>88.25974925793459</v>
       </c>
       <c r="G21">
-        <v>80.30439098220062</v>
+        <v>1.77253010555553</v>
       </c>
       <c r="H21">
-        <v>79.77584912980815</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>73.85432538109671</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>22.82829030462825</v>
+        <v>7.559678341538477</v>
+      </c>
+      <c r="K21">
+        <v>120.4891772149449</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>4.698633345979767</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
-        <v>8.388423571165267</v>
+        <v>10.66520614938559</v>
       </c>
       <c r="D22">
-        <v>10.40465059798297</v>
+        <v>8.87520791750039</v>
       </c>
       <c r="E22">
-        <v>26.65011056723209</v>
+        <v>7.742177592449065</v>
       </c>
       <c r="F22">
-        <v>109.4393705129146</v>
+        <v>88.25974925793459</v>
       </c>
       <c r="G22">
-        <v>86.50955588557986</v>
+        <v>1.77253010555553</v>
       </c>
       <c r="H22">
-        <v>85.94187568942296</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>79.54301579406322</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>24.67639129787073</v>
+        <v>7.559678341538477</v>
+      </c>
+      <c r="K22">
+        <v>120.4891772149449</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>4.698633345979767</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
-        <v>8.021283614265794</v>
+        <v>10.66520614938559</v>
       </c>
       <c r="D23">
-        <v>9.982364190888704</v>
+        <v>8.87520791750039</v>
       </c>
       <c r="E23">
-        <v>25.51387166340228</v>
+        <v>7.742177592449065</v>
       </c>
       <c r="F23">
-        <v>105.0652567372067</v>
+        <v>88.25974925793459</v>
       </c>
       <c r="G23">
-        <v>83.04334919418226</v>
+        <v>1.77253010555553</v>
       </c>
       <c r="H23">
-        <v>82.49707619879769</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>76.36603805417749</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>23.63961659942501</v>
+        <v>7.559678341538477</v>
+      </c>
+      <c r="K23">
+        <v>120.4891772149449</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>4.698633345979767</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
-        <v>6.915566217579149</v>
+        <v>10.66520614938559</v>
       </c>
       <c r="D24">
-        <v>8.690831418293939</v>
+        <v>8.87520791750039</v>
       </c>
       <c r="E24">
-        <v>22.05595825807358</v>
+        <v>7.742177592449065</v>
       </c>
       <c r="F24">
-        <v>91.46669180979549</v>
+        <v>88.25974925793459</v>
       </c>
       <c r="G24">
-        <v>72.27068961145588</v>
+        <v>1.77253010555553</v>
       </c>
       <c r="H24">
-        <v>71.79901063125878</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>66.48146571760714</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>20.48080326635274</v>
+        <v>7.559678341538477</v>
+      </c>
+      <c r="K24">
+        <v>120.4891772149449</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>4.698633345979767</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
-        <v>5.934362454265269</v>
+        <v>10.66520614938559</v>
       </c>
       <c r="D25">
-        <v>7.525945020104956</v>
+        <v>8.87520791750039</v>
       </c>
       <c r="E25">
-        <v>18.95079161623464</v>
+        <v>7.742177592449065</v>
       </c>
       <c r="F25">
-        <v>78.99259177257981</v>
+        <v>88.25974925793459</v>
       </c>
       <c r="G25">
-        <v>62.38714948364728</v>
+        <v>1.77253010555553</v>
       </c>
       <c r="H25">
-        <v>61.99824141585797</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>57.40107622590288</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>17.64070999390993</v>
+        <v>7.559678341538477</v>
+      </c>
+      <c r="K25">
+        <v>120.4891772149449</v>
       </c>
       <c r="L25">
+        <v>4.698633345979767</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.365840552543066</v>
+        <v>3.62473541805421</v>
       </c>
       <c r="D2">
-        <v>5.688309780341411</v>
+        <v>17.99871831395123</v>
       </c>
       <c r="E2">
-        <v>7.454543942050123</v>
+        <v>10.18456960604017</v>
       </c>
       <c r="F2">
-        <v>68.51754768638078</v>
+        <v>108.3662976272943</v>
       </c>
       <c r="G2">
-        <v>1.978054675646233</v>
+        <v>1.897101584056616</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.355039609623558</v>
+        <v>4.873840611728283</v>
       </c>
       <c r="K2">
-        <v>98.90059774331824</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>4.79858851131755</v>
+        <v>8.405363662682984</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>63.95496497158776</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>13.03084599527121</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.936641441597994</v>
+        <v>3.808900017205559</v>
       </c>
       <c r="D3">
-        <v>4.693701454721912</v>
+        <v>16.11116268189577</v>
       </c>
       <c r="E3">
-        <v>7.355165042862588</v>
+        <v>9.18582662438731</v>
       </c>
       <c r="F3">
-        <v>63.81959017064628</v>
+        <v>98.48449814225665</v>
       </c>
       <c r="G3">
-        <v>2.044737546263695</v>
+        <v>1.996813780224473</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.417938096558641</v>
+        <v>5.270758337369204</v>
       </c>
       <c r="K3">
-        <v>90.93352603589301</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>4.830496206297901</v>
+        <v>7.580991406001127</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>57.88191357550555</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>13.24827200169652</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.700488323910031</v>
+        <v>3.90997147766736</v>
       </c>
       <c r="D4">
-        <v>4.153625892237956</v>
+        <v>15.14879967221537</v>
       </c>
       <c r="E4">
-        <v>7.30099093926848</v>
+        <v>8.638192184791855</v>
       </c>
       <c r="F4">
-        <v>61.6231663386751</v>
+        <v>93.59390734783086</v>
       </c>
       <c r="G4">
-        <v>2.08201279487653</v>
+        <v>2.048174609076268</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.482567494340951</v>
+        <v>5.485745685574017</v>
       </c>
       <c r="K4">
-        <v>86.19226897924118</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>4.848647244009812</v>
+        <v>7.130075326604893</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>54.96598493375146</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>13.34872689671059</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.6092792612927</v>
+        <v>3.949537759516229</v>
       </c>
       <c r="D5">
-        <v>3.946173288182825</v>
+        <v>14.78286148639804</v>
       </c>
       <c r="E5">
-        <v>7.28029949419629</v>
+        <v>8.422836345863061</v>
       </c>
       <c r="F5">
-        <v>60.85996236102168</v>
+        <v>91.76986780707111</v>
       </c>
       <c r="G5">
-        <v>2.096627507870319</v>
+        <v>2.067761386395524</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.513762048619579</v>
+        <v>5.569416502466868</v>
       </c>
       <c r="K5">
-        <v>84.27512066622411</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>4.855868022400191</v>
+        <v>6.953007054048952</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>53.83143873845889</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>13.3857408464133</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.594399192906597</v>
+        <v>3.956034407949611</v>
       </c>
       <c r="D6">
-        <v>3.912388764138393</v>
+        <v>14.72335993147874</v>
       </c>
       <c r="E6">
-        <v>7.276940121685989</v>
+        <v>8.387402017110036</v>
       </c>
       <c r="F6">
-        <v>60.74030235866573</v>
+        <v>91.47534686172622</v>
       </c>
       <c r="G6">
-        <v>2.099026764635939</v>
+        <v>2.070951981496249</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.519200133398956</v>
+        <v>5.583129450501588</v>
       </c>
       <c r="K6">
-        <v>83.95721559764591</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>4.857060241913805</v>
+        <v>6.923887031302038</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>53.64553576592882</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>13.39172261250106</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.699239717681928</v>
+        <v>3.910510463632633</v>
       </c>
       <c r="D7">
-        <v>4.150781758983422</v>
+        <v>15.14377386902041</v>
       </c>
       <c r="E7">
-        <v>7.300706619870835</v>
+        <v>8.635263269947808</v>
       </c>
       <c r="F7">
-        <v>61.61238163516295</v>
+        <v>93.56871274448797</v>
       </c>
       <c r="G7">
-        <v>2.082211880838631</v>
+        <v>2.048443268171962</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.4829701888752</v>
+        <v>5.486887287696492</v>
       </c>
       <c r="K7">
-        <v>86.16637528967992</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>4.848745156379807</v>
+        <v>7.127666136480141</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>54.95050319572052</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>13.34923844947515</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.210692359302881</v>
+        <v>3.692001638717016</v>
       </c>
       <c r="D8">
-        <v>5.326530236809673</v>
+        <v>17.27543622252254</v>
       </c>
       <c r="E8">
-        <v>7.418597210287448</v>
+        <v>9.818450421574711</v>
       </c>
       <c r="F8">
-        <v>66.72303507087042</v>
+        <v>104.5508902281168</v>
       </c>
       <c r="G8">
-        <v>2.002082854711233</v>
+        <v>1.934588950075532</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.370001849836541</v>
+        <v>5.019670936288827</v>
       </c>
       <c r="K8">
-        <v>96.10399175839254</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>4.810037815792042</v>
+        <v>8.102903917256155</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>61.66440473307239</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>13.11683333348031</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.66520614938559</v>
+        <v>3.692001638717016</v>
       </c>
       <c r="D9">
-        <v>8.87520791750039</v>
+        <v>17.27543622252254</v>
       </c>
       <c r="E9">
-        <v>7.742177592449065</v>
+        <v>9.818450421574711</v>
       </c>
       <c r="F9">
-        <v>88.25974925793459</v>
+        <v>104.5508902281168</v>
       </c>
       <c r="G9">
-        <v>1.77253010555553</v>
+        <v>1.934588950075532</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.559678341538477</v>
+        <v>5.019670936288827</v>
       </c>
       <c r="K9">
-        <v>120.4891772149449</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>4.698633345979767</v>
+        <v>8.102903917256155</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>61.66440473307239</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>13.11683333348031</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.66520614938559</v>
+        <v>3.692001638717016</v>
       </c>
       <c r="D10">
-        <v>8.87520791750039</v>
+        <v>17.27543622252254</v>
       </c>
       <c r="E10">
-        <v>7.742177592449065</v>
+        <v>9.818450421574711</v>
       </c>
       <c r="F10">
-        <v>88.25974925793459</v>
+        <v>104.5508902281168</v>
       </c>
       <c r="G10">
-        <v>1.77253010555553</v>
+        <v>1.934588950075532</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.559678341538477</v>
+        <v>5.019670936288827</v>
       </c>
       <c r="K10">
-        <v>120.4891772149449</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>4.698633345979767</v>
+        <v>8.102903917256155</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>61.66440473307239</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>13.11683333348031</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.66520614938559</v>
+        <v>3.692001638717016</v>
       </c>
       <c r="D11">
-        <v>8.87520791750039</v>
+        <v>17.27543622252254</v>
       </c>
       <c r="E11">
-        <v>7.742177592449065</v>
+        <v>9.818450421574711</v>
       </c>
       <c r="F11">
-        <v>88.25974925793459</v>
+        <v>104.5508902281168</v>
       </c>
       <c r="G11">
-        <v>1.77253010555553</v>
+        <v>1.934588950075532</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.559678341538477</v>
+        <v>5.019670936288827</v>
       </c>
       <c r="K11">
-        <v>120.4891772149449</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>4.698633345979767</v>
+        <v>8.102903917256155</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>61.66440473307239</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>13.11683333348031</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.66520614938559</v>
+        <v>3.692001638717016</v>
       </c>
       <c r="D12">
-        <v>8.87520791750039</v>
+        <v>17.27543622252254</v>
       </c>
       <c r="E12">
-        <v>7.742177592449065</v>
+        <v>9.818450421574711</v>
       </c>
       <c r="F12">
-        <v>88.25974925793459</v>
+        <v>104.5508902281168</v>
       </c>
       <c r="G12">
-        <v>1.77253010555553</v>
+        <v>1.934588950075532</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.559678341538477</v>
+        <v>5.019670936288827</v>
       </c>
       <c r="K12">
-        <v>120.4891772149449</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>4.698633345979767</v>
+        <v>8.102903917256155</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>61.66440473307239</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>13.11683333348031</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.66520614938559</v>
+        <v>3.692001638717016</v>
       </c>
       <c r="D13">
-        <v>8.87520791750039</v>
+        <v>17.27543622252254</v>
       </c>
       <c r="E13">
-        <v>7.742177592449065</v>
+        <v>9.818450421574711</v>
       </c>
       <c r="F13">
-        <v>88.25974925793459</v>
+        <v>104.5508902281168</v>
       </c>
       <c r="G13">
-        <v>1.77253010555553</v>
+        <v>1.934588950075532</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.559678341538477</v>
+        <v>5.019670936288827</v>
       </c>
       <c r="K13">
-        <v>120.4891772149449</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>4.698633345979767</v>
+        <v>8.102903917256155</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>61.66440473307239</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>13.11683333348031</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.66520614938559</v>
+        <v>3.692001638717016</v>
       </c>
       <c r="D14">
-        <v>8.87520791750039</v>
+        <v>17.27543622252254</v>
       </c>
       <c r="E14">
-        <v>7.742177592449065</v>
+        <v>9.818450421574711</v>
       </c>
       <c r="F14">
-        <v>88.25974925793459</v>
+        <v>104.5508902281168</v>
       </c>
       <c r="G14">
-        <v>1.77253010555553</v>
+        <v>1.934588950075532</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.559678341538477</v>
+        <v>5.019670936288827</v>
       </c>
       <c r="K14">
-        <v>120.4891772149449</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>4.698633345979767</v>
+        <v>8.102903917256155</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>61.66440473307239</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>13.11683333348031</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.66520614938559</v>
+        <v>3.692001638717016</v>
       </c>
       <c r="D15">
-        <v>8.87520791750039</v>
+        <v>17.27543622252254</v>
       </c>
       <c r="E15">
-        <v>7.742177592449065</v>
+        <v>9.818450421574711</v>
       </c>
       <c r="F15">
-        <v>88.25974925793459</v>
+        <v>104.5508902281168</v>
       </c>
       <c r="G15">
-        <v>1.77253010555553</v>
+        <v>1.934588950075532</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.559678341538477</v>
+        <v>5.019670936288827</v>
       </c>
       <c r="K15">
-        <v>120.4891772149449</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>4.698633345979767</v>
+        <v>8.102903917256155</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>61.66440473307239</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>13.11683333348031</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.66520614938559</v>
+        <v>3.692001638717016</v>
       </c>
       <c r="D16">
-        <v>8.87520791750039</v>
+        <v>17.27543622252254</v>
       </c>
       <c r="E16">
-        <v>7.742177592449065</v>
+        <v>9.818450421574711</v>
       </c>
       <c r="F16">
-        <v>88.25974925793459</v>
+        <v>104.5508902281168</v>
       </c>
       <c r="G16">
-        <v>1.77253010555553</v>
+        <v>1.934588950075532</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.559678341538477</v>
+        <v>5.019670936288827</v>
       </c>
       <c r="K16">
-        <v>120.4891772149449</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>4.698633345979767</v>
+        <v>8.102903917256155</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>61.66440473307239</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>13.11683333348031</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.66520614938559</v>
+        <v>3.692001638717016</v>
       </c>
       <c r="D17">
-        <v>8.87520791750039</v>
+        <v>17.27543622252254</v>
       </c>
       <c r="E17">
-        <v>7.742177592449065</v>
+        <v>9.818450421574711</v>
       </c>
       <c r="F17">
-        <v>88.25974925793459</v>
+        <v>104.5508902281168</v>
       </c>
       <c r="G17">
-        <v>1.77253010555553</v>
+        <v>1.934588950075532</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.559678341538477</v>
+        <v>5.019670936288827</v>
       </c>
       <c r="K17">
-        <v>120.4891772149449</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>4.698633345979767</v>
+        <v>8.102903917256155</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>61.66440473307239</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>13.11683333348031</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.66520614938559</v>
+        <v>3.692001638717016</v>
       </c>
       <c r="D18">
-        <v>8.87520791750039</v>
+        <v>17.27543622252254</v>
       </c>
       <c r="E18">
-        <v>7.742177592449065</v>
+        <v>9.818450421574711</v>
       </c>
       <c r="F18">
-        <v>88.25974925793459</v>
+        <v>104.5508902281168</v>
       </c>
       <c r="G18">
-        <v>1.77253010555553</v>
+        <v>1.934588950075532</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.559678341538477</v>
+        <v>5.019670936288827</v>
       </c>
       <c r="K18">
-        <v>120.4891772149449</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>4.698633345979767</v>
+        <v>8.102903917256155</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>61.66440473307239</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>13.11683333348031</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.66520614938559</v>
+        <v>3.692001638717016</v>
       </c>
       <c r="D19">
-        <v>8.87520791750039</v>
+        <v>17.27543622252254</v>
       </c>
       <c r="E19">
-        <v>7.742177592449065</v>
+        <v>9.818450421574711</v>
       </c>
       <c r="F19">
-        <v>88.25974925793459</v>
+        <v>104.5508902281168</v>
       </c>
       <c r="G19">
-        <v>1.77253010555553</v>
+        <v>1.934588950075532</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.559678341538477</v>
+        <v>5.019670936288827</v>
       </c>
       <c r="K19">
-        <v>120.4891772149449</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>4.698633345979767</v>
+        <v>8.102903917256155</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>61.66440473307239</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>13.11683333348031</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.66520614938559</v>
+        <v>3.692001638717016</v>
       </c>
       <c r="D20">
-        <v>8.87520791750039</v>
+        <v>17.27543622252254</v>
       </c>
       <c r="E20">
-        <v>7.742177592449065</v>
+        <v>9.818450421574711</v>
       </c>
       <c r="F20">
-        <v>88.25974925793459</v>
+        <v>104.5508902281168</v>
       </c>
       <c r="G20">
-        <v>1.77253010555553</v>
+        <v>1.934588950075532</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.559678341538477</v>
+        <v>5.019670936288827</v>
       </c>
       <c r="K20">
-        <v>120.4891772149449</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>4.698633345979767</v>
+        <v>8.102903917256155</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>61.66440473307239</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>13.11683333348031</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.66520614938559</v>
+        <v>3.692001638717016</v>
       </c>
       <c r="D21">
-        <v>8.87520791750039</v>
+        <v>17.27543622252254</v>
       </c>
       <c r="E21">
-        <v>7.742177592449065</v>
+        <v>9.818450421574711</v>
       </c>
       <c r="F21">
-        <v>88.25974925793459</v>
+        <v>104.5508902281168</v>
       </c>
       <c r="G21">
-        <v>1.77253010555553</v>
+        <v>1.934588950075532</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.559678341538477</v>
+        <v>5.019670936288827</v>
       </c>
       <c r="K21">
-        <v>120.4891772149449</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>4.698633345979767</v>
+        <v>8.102903917256155</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>61.66440473307239</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>13.11683333348031</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.66520614938559</v>
+        <v>3.692001638717016</v>
       </c>
       <c r="D22">
-        <v>8.87520791750039</v>
+        <v>17.27543622252254</v>
       </c>
       <c r="E22">
-        <v>7.742177592449065</v>
+        <v>9.818450421574711</v>
       </c>
       <c r="F22">
-        <v>88.25974925793459</v>
+        <v>104.5508902281168</v>
       </c>
       <c r="G22">
-        <v>1.77253010555553</v>
+        <v>1.934588950075532</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.559678341538477</v>
+        <v>5.019670936288827</v>
       </c>
       <c r="K22">
-        <v>120.4891772149449</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>4.698633345979767</v>
+        <v>8.102903917256155</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>61.66440473307239</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>13.11683333348031</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.66520614938559</v>
+        <v>3.692001638717016</v>
       </c>
       <c r="D23">
-        <v>8.87520791750039</v>
+        <v>17.27543622252254</v>
       </c>
       <c r="E23">
-        <v>7.742177592449065</v>
+        <v>9.818450421574711</v>
       </c>
       <c r="F23">
-        <v>88.25974925793459</v>
+        <v>104.5508902281168</v>
       </c>
       <c r="G23">
-        <v>1.77253010555553</v>
+        <v>1.934588950075532</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.559678341538477</v>
+        <v>5.019670936288827</v>
       </c>
       <c r="K23">
-        <v>120.4891772149449</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>4.698633345979767</v>
+        <v>8.102903917256155</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>61.66440473307239</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>13.11683333348031</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.66520614938559</v>
+        <v>3.692001638717016</v>
       </c>
       <c r="D24">
-        <v>8.87520791750039</v>
+        <v>17.27543622252254</v>
       </c>
       <c r="E24">
-        <v>7.742177592449065</v>
+        <v>9.818450421574711</v>
       </c>
       <c r="F24">
-        <v>88.25974925793459</v>
+        <v>104.5508902281168</v>
       </c>
       <c r="G24">
-        <v>1.77253010555553</v>
+        <v>1.934588950075532</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.559678341538477</v>
+        <v>5.019670936288827</v>
       </c>
       <c r="K24">
-        <v>120.4891772149449</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>4.698633345979767</v>
+        <v>8.102903917256155</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>61.66440473307239</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>13.11683333348031</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.66520614938559</v>
+        <v>3.692001638717016</v>
       </c>
       <c r="D25">
-        <v>8.87520791750039</v>
+        <v>17.27543622252254</v>
       </c>
       <c r="E25">
-        <v>7.742177592449065</v>
+        <v>9.818450421574711</v>
       </c>
       <c r="F25">
-        <v>88.25974925793459</v>
+        <v>104.5508902281168</v>
       </c>
       <c r="G25">
-        <v>1.77253010555553</v>
+        <v>1.934588950075532</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.559678341538477</v>
+        <v>5.019670936288827</v>
       </c>
       <c r="K25">
-        <v>120.4891772149449</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>4.698633345979767</v>
+        <v>8.102903917256155</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>61.66440473307239</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>13.11683333348031</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.62473541805421</v>
+        <v>7.813398806220115</v>
       </c>
       <c r="D2">
-        <v>17.99871831395123</v>
+        <v>16.22714636258608</v>
       </c>
       <c r="E2">
-        <v>10.18456960604017</v>
+        <v>6.462727774721766</v>
       </c>
       <c r="F2">
-        <v>108.3662976272943</v>
+        <v>118.6573573305936</v>
       </c>
       <c r="G2">
-        <v>1.897101584056616</v>
+        <v>4.137861705910042</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.873840611728283</v>
+        <v>11.72131370980549</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.405363662682984</v>
+        <v>8.733802619244567</v>
       </c>
       <c r="M2">
-        <v>63.95496497158776</v>
+        <v>62.73389755469431</v>
       </c>
       <c r="N2">
-        <v>13.03084599527121</v>
+        <v>18.21330573868288</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.808900017205559</v>
+        <v>7.850806573276888</v>
       </c>
       <c r="D3">
-        <v>16.11116268189577</v>
+        <v>16.13720891614603</v>
       </c>
       <c r="E3">
-        <v>9.18582662438731</v>
+        <v>6.236725123443867</v>
       </c>
       <c r="F3">
-        <v>98.48449814225665</v>
+        <v>118.6121778879305</v>
       </c>
       <c r="G3">
-        <v>1.996813780224473</v>
+        <v>4.15350076176412</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.270758337369204</v>
+        <v>11.79326505081509</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.580991406001127</v>
+        <v>8.712178421784669</v>
       </c>
       <c r="M3">
-        <v>57.88191357550555</v>
+        <v>62.30545170336337</v>
       </c>
       <c r="N3">
-        <v>13.24827200169652</v>
+        <v>18.23894920606617</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.90997147766736</v>
+        <v>7.874760783841378</v>
       </c>
       <c r="D4">
-        <v>15.14879967221537</v>
+        <v>16.08923392929637</v>
       </c>
       <c r="E4">
-        <v>8.638192184791855</v>
+        <v>6.093382676265841</v>
       </c>
       <c r="F4">
-        <v>93.59390734783086</v>
+        <v>118.6322417717166</v>
       </c>
       <c r="G4">
-        <v>2.048174609076268</v>
+        <v>4.163505240619097</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.485745685574017</v>
+        <v>11.83926718376379</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.130075326604893</v>
+        <v>8.701570291761398</v>
       </c>
       <c r="M4">
-        <v>54.96598493375146</v>
+        <v>62.06027000250345</v>
       </c>
       <c r="N4">
-        <v>13.34872689671059</v>
+        <v>18.2579213399345</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.949537759516229</v>
+        <v>7.884772535133008</v>
       </c>
       <c r="D5">
-        <v>14.78286148639804</v>
+        <v>16.07148745715095</v>
       </c>
       <c r="E5">
-        <v>8.422836345863061</v>
+        <v>6.033857302849843</v>
       </c>
       <c r="F5">
-        <v>91.76986780707111</v>
+        <v>118.6522452439535</v>
       </c>
       <c r="G5">
-        <v>2.067761386395524</v>
+        <v>4.167684547712224</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.569416502466868</v>
+        <v>11.85847660033368</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.953007054048952</v>
+        <v>8.697913601009562</v>
       </c>
       <c r="M5">
-        <v>53.83143873845889</v>
+        <v>61.96487781170207</v>
       </c>
       <c r="N5">
-        <v>13.3857408464133</v>
+        <v>18.26646883236016</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.956034407949611</v>
+        <v>7.886450159189902</v>
       </c>
       <c r="D6">
-        <v>14.72335993147874</v>
+        <v>16.06864901476864</v>
       </c>
       <c r="E6">
-        <v>8.387402017110036</v>
+        <v>6.02390720951613</v>
       </c>
       <c r="F6">
-        <v>91.47534686172622</v>
+        <v>118.6562754006829</v>
       </c>
       <c r="G6">
-        <v>2.070951981496249</v>
+        <v>4.168384740766714</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.583129450501588</v>
+        <v>11.86169441615701</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.923887031302038</v>
+        <v>8.697346493194516</v>
       </c>
       <c r="M6">
-        <v>53.64553576592882</v>
+        <v>61.94931166033444</v>
       </c>
       <c r="N6">
-        <v>13.39172261250106</v>
+        <v>18.26793756908074</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.910510463632633</v>
+        <v>7.874894789617088</v>
       </c>
       <c r="D7">
-        <v>15.14377386902041</v>
+        <v>16.08898731741058</v>
       </c>
       <c r="E7">
-        <v>8.635263269947808</v>
+        <v>6.092584344916893</v>
       </c>
       <c r="F7">
-        <v>93.56871274448797</v>
+        <v>118.6324639159835</v>
       </c>
       <c r="G7">
-        <v>2.048443268171962</v>
+        <v>4.163561187892806</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.486887287696492</v>
+        <v>11.8395243672894</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.127666136480141</v>
+        <v>8.701518285797473</v>
       </c>
       <c r="M7">
-        <v>54.95050319572052</v>
+        <v>62.05896517642626</v>
       </c>
       <c r="N7">
-        <v>13.34923844947515</v>
+        <v>18.25803330347265</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.692001638717016</v>
+        <v>7.826093862545941</v>
       </c>
       <c r="D8">
-        <v>17.27543622252254</v>
+        <v>16.19462142222376</v>
       </c>
       <c r="E8">
-        <v>9.818450421574711</v>
+        <v>6.385773339974516</v>
       </c>
       <c r="F8">
-        <v>104.5508902281168</v>
+        <v>118.6317425682623</v>
       </c>
       <c r="G8">
-        <v>1.934588950075532</v>
+        <v>4.143171408138285</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.019670936288827</v>
+        <v>11.74574681772001</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.102903917256155</v>
+        <v>8.725789722979513</v>
       </c>
       <c r="M8">
-        <v>61.66440473307239</v>
+        <v>62.58247330752025</v>
       </c>
       <c r="N8">
-        <v>13.11683333348031</v>
+        <v>18.22148075380806</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.692001638717016</v>
+        <v>7.738106364121719</v>
       </c>
       <c r="D9">
-        <v>17.27543622252254</v>
+        <v>16.45998475052729</v>
       </c>
       <c r="E9">
-        <v>9.818450421574711</v>
+        <v>6.922974484131649</v>
       </c>
       <c r="F9">
-        <v>104.5508902281168</v>
+        <v>119.0181116688683</v>
       </c>
       <c r="G9">
-        <v>1.934588950075532</v>
+        <v>4.106316018569705</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.019670936288827</v>
+        <v>11.57610559810305</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.102903917256155</v>
+        <v>8.79477235450363</v>
       </c>
       <c r="M9">
-        <v>61.66440473307239</v>
+        <v>63.74970125974507</v>
       </c>
       <c r="N9">
-        <v>13.11683333348031</v>
+        <v>18.17518976243209</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.692001638717016</v>
+        <v>7.678004418347897</v>
       </c>
       <c r="D10">
-        <v>17.27543622252254</v>
+        <v>16.69125949626301</v>
       </c>
       <c r="E10">
-        <v>9.818450421574711</v>
+        <v>7.293076024844286</v>
       </c>
       <c r="F10">
-        <v>104.5508902281168</v>
+        <v>119.5497476329953</v>
       </c>
       <c r="G10">
-        <v>1.934588950075532</v>
+        <v>4.081057752334118</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.019670936288827</v>
+        <v>11.45985315239418</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.102903917256155</v>
+        <v>8.858756290370611</v>
       </c>
       <c r="M10">
-        <v>61.66440473307239</v>
+        <v>64.69099592838778</v>
       </c>
       <c r="N10">
-        <v>13.11683333348031</v>
+        <v>18.15635566519108</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.692001638717016</v>
+        <v>7.651613051229248</v>
       </c>
       <c r="D11">
-        <v>17.27543622252254</v>
+        <v>16.8044874164912</v>
       </c>
       <c r="E11">
-        <v>9.818450421574711</v>
+        <v>7.455866207919808</v>
       </c>
       <c r="F11">
-        <v>104.5508902281168</v>
+        <v>119.8477532464</v>
       </c>
       <c r="G11">
-        <v>1.934588950075532</v>
+        <v>4.069942087340611</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.019670936288827</v>
+        <v>11.40871763225377</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.102903917256155</v>
+        <v>8.890802505142089</v>
       </c>
       <c r="M11">
-        <v>61.66440473307239</v>
+        <v>65.13689041335192</v>
       </c>
       <c r="N11">
-        <v>13.11683333348031</v>
+        <v>18.15101433815271</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.692001638717016</v>
+        <v>7.641752843053055</v>
       </c>
       <c r="D12">
-        <v>17.27543622252254</v>
+        <v>16.84852436674615</v>
       </c>
       <c r="E12">
-        <v>9.818450421574711</v>
+        <v>7.516694563011078</v>
       </c>
       <c r="F12">
-        <v>104.5508902281168</v>
+        <v>119.9688610611815</v>
       </c>
       <c r="G12">
-        <v>1.934588950075532</v>
+        <v>4.065785011212896</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.019670936288827</v>
+        <v>11.38959953694426</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.102903917256155</v>
+        <v>8.903363716698271</v>
       </c>
       <c r="M12">
-        <v>61.66440473307239</v>
+        <v>65.30823504183768</v>
       </c>
       <c r="N12">
-        <v>13.11683333348031</v>
+        <v>18.14944958826968</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.692001638717016</v>
+        <v>7.643870519144072</v>
       </c>
       <c r="D13">
-        <v>17.27543622252254</v>
+        <v>16.83898853968802</v>
       </c>
       <c r="E13">
-        <v>9.818450421574711</v>
+        <v>7.503630622544172</v>
       </c>
       <c r="F13">
-        <v>104.5508902281168</v>
+        <v>119.9424080951522</v>
       </c>
       <c r="G13">
-        <v>1.934588950075532</v>
+        <v>4.066678018237621</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.019670936288827</v>
+        <v>11.39370611932479</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.102903917256155</v>
+        <v>8.900639438244562</v>
       </c>
       <c r="M13">
-        <v>61.66440473307239</v>
+        <v>65.27122280455774</v>
       </c>
       <c r="N13">
-        <v>13.11683333348031</v>
+        <v>18.14976631931201</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.692001638717016</v>
+        <v>7.650799184721681</v>
       </c>
       <c r="D14">
-        <v>17.27543622252254</v>
+        <v>16.8080870818219</v>
       </c>
       <c r="E14">
-        <v>9.818450421574711</v>
+        <v>7.4608870384057</v>
       </c>
       <c r="F14">
-        <v>104.5508902281168</v>
+        <v>119.8575502865825</v>
       </c>
       <c r="G14">
-        <v>1.934588950075532</v>
+        <v>4.069599046097908</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.019670936288827</v>
+        <v>11.40713988127504</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.102903917256155</v>
+        <v>8.891827367721186</v>
       </c>
       <c r="M14">
-        <v>61.66440473307239</v>
+        <v>65.15093734844287</v>
       </c>
       <c r="N14">
-        <v>13.11683333348031</v>
+        <v>18.15087646393568</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.692001638717016</v>
+        <v>7.655060507623269</v>
       </c>
       <c r="D15">
-        <v>17.27543622252254</v>
+        <v>16.78931028522141</v>
       </c>
       <c r="E15">
-        <v>9.818450421574711</v>
+        <v>7.434598593881306</v>
       </c>
       <c r="F15">
-        <v>104.5508902281168</v>
+        <v>119.8066534537154</v>
       </c>
       <c r="G15">
-        <v>1.934588950075532</v>
+        <v>4.071395005482495</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.019670936288827</v>
+        <v>11.41540029150454</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.102903917256155</v>
+        <v>8.886485292449764</v>
       </c>
       <c r="M15">
-        <v>61.66440473307239</v>
+        <v>65.07758231133967</v>
       </c>
       <c r="N15">
-        <v>13.11683333348031</v>
+        <v>18.15161590694016</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.692001638717016</v>
+        <v>7.679748015132083</v>
       </c>
       <c r="D16">
-        <v>17.27543622252254</v>
+        <v>16.68402177970683</v>
       </c>
       <c r="E16">
-        <v>9.818450421574711</v>
+        <v>7.282323775582382</v>
       </c>
       <c r="F16">
-        <v>104.5508902281168</v>
+        <v>119.5314181584408</v>
       </c>
       <c r="G16">
-        <v>1.934588950075532</v>
+        <v>4.081791581794907</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.019670936288827</v>
+        <v>11.46322968631926</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.102903917256155</v>
+        <v>8.856721434193929</v>
       </c>
       <c r="M16">
-        <v>61.66440473307239</v>
+        <v>64.66220746784074</v>
       </c>
       <c r="N16">
-        <v>13.11683333348031</v>
+        <v>18.15676914474599</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.692001638717016</v>
+        <v>7.69513412778389</v>
       </c>
       <c r="D17">
-        <v>17.27543622252254</v>
+        <v>16.62149010419712</v>
       </c>
       <c r="E17">
-        <v>9.818450421574711</v>
+        <v>7.187468889658498</v>
       </c>
       <c r="F17">
-        <v>104.5508902281168</v>
+        <v>119.3770863771122</v>
       </c>
       <c r="G17">
-        <v>1.934588950075532</v>
+        <v>4.088264291472565</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.019670936288827</v>
+        <v>11.49301534242861</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.102903917256155</v>
+        <v>8.839217595192176</v>
       </c>
       <c r="M17">
-        <v>61.66440473307239</v>
+        <v>64.41188521748818</v>
       </c>
       <c r="N17">
-        <v>13.11683333348031</v>
+        <v>18.16075261586648</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.692001638717016</v>
+        <v>7.704073345061141</v>
       </c>
       <c r="D18">
-        <v>17.27543622252254</v>
+        <v>16.58627812070982</v>
       </c>
       <c r="E18">
-        <v>9.818450421574711</v>
+        <v>7.132387194911733</v>
       </c>
       <c r="F18">
-        <v>104.5508902281168</v>
+        <v>119.2935943049454</v>
       </c>
       <c r="G18">
-        <v>1.934588950075532</v>
+        <v>4.092022571243188</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.019670936288827</v>
+        <v>11.51031216877536</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.102903917256155</v>
+        <v>8.8294263598185</v>
       </c>
       <c r="M18">
-        <v>61.66440473307239</v>
+        <v>64.26957516616059</v>
       </c>
       <c r="N18">
-        <v>13.11683333348031</v>
+        <v>18.16334786448413</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.692001638717016</v>
+        <v>7.707115473633594</v>
       </c>
       <c r="D19">
-        <v>17.27543622252254</v>
+        <v>16.57448531571054</v>
       </c>
       <c r="E19">
-        <v>9.818450421574711</v>
+        <v>7.113648079185634</v>
       </c>
       <c r="F19">
-        <v>104.5508902281168</v>
+        <v>119.2662257398436</v>
       </c>
       <c r="G19">
-        <v>1.934588950075532</v>
+        <v>4.093301180692372</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.019670936288827</v>
+        <v>11.51619706637496</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.102903917256155</v>
+        <v>8.826158602240865</v>
       </c>
       <c r="M19">
-        <v>61.66440473307239</v>
+        <v>64.22167953417515</v>
       </c>
       <c r="N19">
-        <v>13.11683333348031</v>
+        <v>18.16427897439873</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.692001638717016</v>
+        <v>7.693487004091672</v>
       </c>
       <c r="D20">
-        <v>17.27543622252254</v>
+        <v>16.62806855740801</v>
       </c>
       <c r="E20">
-        <v>9.818450421574711</v>
+        <v>7.197620678136153</v>
       </c>
       <c r="F20">
-        <v>104.5508902281168</v>
+        <v>119.392967924737</v>
       </c>
       <c r="G20">
-        <v>1.934588950075532</v>
+        <v>4.087571613846607</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.019670936288827</v>
+        <v>11.48982758128447</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.102903917256155</v>
+        <v>8.841052266411644</v>
       </c>
       <c r="M20">
-        <v>61.66440473307239</v>
+        <v>64.43836010578949</v>
       </c>
       <c r="N20">
-        <v>13.11683333348031</v>
+        <v>18.16029714245816</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.692001638717016</v>
+        <v>7.648760464521624</v>
       </c>
       <c r="D21">
-        <v>17.27543622252254</v>
+        <v>16.8171320611814</v>
       </c>
       <c r="E21">
-        <v>9.818450421574711</v>
+        <v>7.47346413753741</v>
       </c>
       <c r="F21">
-        <v>104.5508902281168</v>
+        <v>119.8822494746941</v>
       </c>
       <c r="G21">
-        <v>1.934588950075532</v>
+        <v>4.068739666727905</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.019670936288827</v>
+        <v>11.40318743394379</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.102903917256155</v>
+        <v>8.894404099637937</v>
       </c>
       <c r="M21">
-        <v>61.66440473307239</v>
+        <v>65.18620082377393</v>
       </c>
       <c r="N21">
-        <v>13.11683333348031</v>
+        <v>18.15053800994264</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.692001638717016</v>
+        <v>7.620306563786228</v>
       </c>
       <c r="D22">
-        <v>17.27543622252254</v>
+        <v>16.947459421647</v>
       </c>
       <c r="E22">
-        <v>9.818450421574711</v>
+        <v>7.648978510648438</v>
       </c>
       <c r="F22">
-        <v>104.5508902281168</v>
+        <v>120.2502490522129</v>
       </c>
       <c r="G22">
-        <v>1.934588950075532</v>
+        <v>4.05673524916147</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.019670936288827</v>
+        <v>11.34799314786025</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.102903917256155</v>
+        <v>8.931757077423768</v>
       </c>
       <c r="M22">
-        <v>61.66440473307239</v>
+        <v>65.68947107313559</v>
       </c>
       <c r="N22">
-        <v>13.11683333348031</v>
+        <v>18.14682582180229</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.692001638717016</v>
+        <v>7.635422787846091</v>
       </c>
       <c r="D23">
-        <v>17.27543622252254</v>
+        <v>16.87728056232197</v>
       </c>
       <c r="E23">
-        <v>9.818450421574711</v>
+        <v>7.555743404745489</v>
       </c>
       <c r="F23">
-        <v>104.5508902281168</v>
+        <v>120.0493683307539</v>
       </c>
       <c r="G23">
-        <v>1.934588950075532</v>
+        <v>4.063115044703283</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.019670936288827</v>
+        <v>11.3773224285009</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.102903917256155</v>
+        <v>8.911592727377315</v>
       </c>
       <c r="M23">
-        <v>61.66440473307239</v>
+        <v>65.41955531120242</v>
       </c>
       <c r="N23">
-        <v>13.11683333348031</v>
+        <v>18.14856521726656</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.692001638717016</v>
+        <v>7.694231377151907</v>
       </c>
       <c r="D24">
-        <v>17.27543622252254</v>
+        <v>16.6250921395678</v>
       </c>
       <c r="E24">
-        <v>9.818450421574711</v>
+        <v>7.193032761343029</v>
       </c>
       <c r="F24">
-        <v>104.5508902281168</v>
+        <v>119.3857715841263</v>
       </c>
       <c r="G24">
-        <v>1.934588950075532</v>
+        <v>4.087884657927585</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.019670936288827</v>
+        <v>11.4912682298933</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.102903917256155</v>
+        <v>8.840221964726098</v>
       </c>
       <c r="M24">
-        <v>61.66440473307239</v>
+        <v>64.42638581028967</v>
       </c>
       <c r="N24">
-        <v>13.11683333348031</v>
+        <v>18.16050211121814</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.692001638717016</v>
+        <v>7.761099862064076</v>
       </c>
       <c r="D25">
-        <v>17.27543622252254</v>
+        <v>16.3818703004049</v>
       </c>
       <c r="E25">
-        <v>9.818450421574711</v>
+        <v>6.781867606926054</v>
       </c>
       <c r="F25">
-        <v>104.5508902281168</v>
+        <v>118.8708823009834</v>
       </c>
       <c r="G25">
-        <v>1.934588950075532</v>
+        <v>4.115960307278533</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.019670936288827</v>
+        <v>11.62050307005564</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.102903917256155</v>
+        <v>8.773792320803455</v>
       </c>
       <c r="M25">
-        <v>61.66440473307239</v>
+        <v>63.4190679464839</v>
       </c>
       <c r="N25">
-        <v>13.11683333348031</v>
+        <v>18.18502505134802</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,37 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0</v>
+        <v>16.78829496238939</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>41.68778761949522</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>45.18618998177569</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>194.8023430593147</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.803495408048701</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.503676488823141</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>15.17749950313033</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -453,129 +456,954 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="C3">
+        <v>14.17582819085914</v>
+      </c>
+      <c r="D3">
+        <v>37.06530826250359</v>
+      </c>
+      <c r="E3">
+        <v>38.95087544624651</v>
+      </c>
+      <c r="F3">
+        <v>173.6030304287042</v>
+      </c>
+      <c r="G3">
+        <v>1.871504382565566</v>
+      </c>
+      <c r="H3">
+        <v>7.726217604351578</v>
+      </c>
+      <c r="I3">
+        <v>12.3000507262964</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="C4">
+        <v>12.85131198401366</v>
+      </c>
+      <c r="D4">
+        <v>34.54116751344701</v>
+      </c>
+      <c r="E4">
+        <v>35.70781351841465</v>
+      </c>
+      <c r="F4">
+        <v>161.9309889839123</v>
+      </c>
+      <c r="G4">
+        <v>1.905604672126717</v>
+      </c>
+      <c r="H4">
+        <v>6.82009852048633</v>
+      </c>
+      <c r="I4">
+        <v>10.85496607833949</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="C5">
+        <v>12.32849640707637</v>
+      </c>
+      <c r="D5">
+        <v>33.51960771341228</v>
+      </c>
+      <c r="E5">
+        <v>34.4442395791873</v>
+      </c>
+      <c r="F5">
+        <v>157.248289477666</v>
+      </c>
+      <c r="G5">
+        <v>1.918701876216824</v>
+      </c>
+      <c r="H5">
+        <v>6.470078725505966</v>
+      </c>
+      <c r="I5">
+        <v>10.29891305787589</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="C6">
+        <v>12.21976945265584</v>
+      </c>
+      <c r="D6">
+        <v>33.31789610090687</v>
+      </c>
+      <c r="E6">
+        <v>34.21888494306512</v>
+      </c>
+      <c r="F6">
+        <v>156.3402991642843</v>
+      </c>
+      <c r="G6">
+        <v>1.921109421120676</v>
+      </c>
+      <c r="H6">
+        <v>6.406498443855097</v>
+      </c>
+      <c r="I6">
+        <v>10.19605898023067</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="C7">
+        <v>12.77885353999372</v>
+      </c>
+      <c r="D7">
+        <v>34.43445774971504</v>
+      </c>
+      <c r="E7">
+        <v>35.63465406342533</v>
+      </c>
+      <c r="F7">
+        <v>161.4894612766316</v>
+      </c>
+      <c r="G7">
+        <v>1.906604653883302</v>
+      </c>
+      <c r="H7">
+        <v>6.79598398064752</v>
+      </c>
+      <c r="I7">
+        <v>10.81072230714376</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="C8">
+        <v>15.69768388357529</v>
+      </c>
+      <c r="D8">
+        <v>39.84483447481416</v>
+      </c>
+      <c r="E8">
+        <v>42.73142194402926</v>
+      </c>
+      <c r="F8">
+        <v>186.4439004774551</v>
+      </c>
+      <c r="G8">
+        <v>1.830939016216406</v>
+      </c>
+      <c r="H8">
+        <v>8.794647348505997</v>
+      </c>
+      <c r="I8">
+        <v>14.01430033267212</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="C9">
+        <v>15.69768388357529</v>
+      </c>
+      <c r="D9">
+        <v>39.84483447481416</v>
+      </c>
+      <c r="E9">
+        <v>42.73142194402926</v>
+      </c>
+      <c r="F9">
+        <v>186.4439004774551</v>
+      </c>
+      <c r="G9">
+        <v>1.830939016216406</v>
+      </c>
+      <c r="H9">
+        <v>8.794647348505997</v>
+      </c>
+      <c r="I9">
+        <v>14.01430033267212</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="C10">
+        <v>15.69768388357529</v>
+      </c>
+      <c r="D10">
+        <v>39.84483447481416</v>
+      </c>
+      <c r="E10">
+        <v>42.73142194402926</v>
+      </c>
+      <c r="F10">
+        <v>186.4439004774551</v>
+      </c>
+      <c r="G10">
+        <v>1.830939016216406</v>
+      </c>
+      <c r="H10">
+        <v>8.794647348505997</v>
+      </c>
+      <c r="I10">
+        <v>14.01430033267212</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="C11">
+        <v>15.69768388357529</v>
+      </c>
+      <c r="D11">
+        <v>39.84483447481416</v>
+      </c>
+      <c r="E11">
+        <v>42.73142194402926</v>
+      </c>
+      <c r="F11">
+        <v>186.4439004774551</v>
+      </c>
+      <c r="G11">
+        <v>1.830939016216406</v>
+      </c>
+      <c r="H11">
+        <v>8.794647348505997</v>
+      </c>
+      <c r="I11">
+        <v>14.01430033267212</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="C12">
+        <v>15.69768388357529</v>
+      </c>
+      <c r="D12">
+        <v>39.84483447481416</v>
+      </c>
+      <c r="E12">
+        <v>42.73142194402926</v>
+      </c>
+      <c r="F12">
+        <v>186.4439004774551</v>
+      </c>
+      <c r="G12">
+        <v>1.830939016216406</v>
+      </c>
+      <c r="H12">
+        <v>8.794647348505997</v>
+      </c>
+      <c r="I12">
+        <v>14.01430033267212</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="C13">
+        <v>15.69768388357529</v>
+      </c>
+      <c r="D13">
+        <v>39.84483447481416</v>
+      </c>
+      <c r="E13">
+        <v>42.73142194402926</v>
+      </c>
+      <c r="F13">
+        <v>186.4439004774551</v>
+      </c>
+      <c r="G13">
+        <v>1.830939016216406</v>
+      </c>
+      <c r="H13">
+        <v>8.794647348505997</v>
+      </c>
+      <c r="I13">
+        <v>14.01430033267212</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="C14">
+        <v>15.69768388357529</v>
+      </c>
+      <c r="D14">
+        <v>39.84483447481416</v>
+      </c>
+      <c r="E14">
+        <v>42.73142194402926</v>
+      </c>
+      <c r="F14">
+        <v>186.4439004774551</v>
+      </c>
+      <c r="G14">
+        <v>1.830939016216406</v>
+      </c>
+      <c r="H14">
+        <v>8.794647348505997</v>
+      </c>
+      <c r="I14">
+        <v>14.01430033267212</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="C15">
+        <v>15.69768388357529</v>
+      </c>
+      <c r="D15">
+        <v>39.84483447481416</v>
+      </c>
+      <c r="E15">
+        <v>42.73142194402926</v>
+      </c>
+      <c r="F15">
+        <v>186.4439004774551</v>
+      </c>
+      <c r="G15">
+        <v>1.830939016216406</v>
+      </c>
+      <c r="H15">
+        <v>8.794647348505997</v>
+      </c>
+      <c r="I15">
+        <v>14.01430033267212</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>15.69768388357529</v>
+      </c>
+      <c r="D16">
+        <v>39.84483447481416</v>
+      </c>
+      <c r="E16">
+        <v>42.73142194402926</v>
+      </c>
+      <c r="F16">
+        <v>186.4439004774551</v>
+      </c>
+      <c r="G16">
+        <v>1.830939016216406</v>
+      </c>
+      <c r="H16">
+        <v>8.794647348505997</v>
+      </c>
+      <c r="I16">
+        <v>14.01430033267212</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>15.69768388357529</v>
+      </c>
+      <c r="D17">
+        <v>39.84483447481416</v>
+      </c>
+      <c r="E17">
+        <v>42.73142194402926</v>
+      </c>
+      <c r="F17">
+        <v>186.4439004774551</v>
+      </c>
+      <c r="G17">
+        <v>1.830939016216406</v>
+      </c>
+      <c r="H17">
+        <v>8.794647348505997</v>
+      </c>
+      <c r="I17">
+        <v>14.01430033267212</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>15.69768388357529</v>
+      </c>
+      <c r="D18">
+        <v>39.84483447481416</v>
+      </c>
+      <c r="E18">
+        <v>42.73142194402926</v>
+      </c>
+      <c r="F18">
+        <v>186.4439004774551</v>
+      </c>
+      <c r="G18">
+        <v>1.830939016216406</v>
+      </c>
+      <c r="H18">
+        <v>8.794647348505997</v>
+      </c>
+      <c r="I18">
+        <v>14.01430033267212</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>15.69768388357529</v>
+      </c>
+      <c r="D19">
+        <v>39.84483447481416</v>
+      </c>
+      <c r="E19">
+        <v>42.73142194402926</v>
+      </c>
+      <c r="F19">
+        <v>186.4439004774551</v>
+      </c>
+      <c r="G19">
+        <v>1.830939016216406</v>
+      </c>
+      <c r="H19">
+        <v>8.794647348505997</v>
+      </c>
+      <c r="I19">
+        <v>14.01430033267212</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>15.69768388357529</v>
+      </c>
+      <c r="D20">
+        <v>39.84483447481416</v>
+      </c>
+      <c r="E20">
+        <v>42.73142194402926</v>
+      </c>
+      <c r="F20">
+        <v>186.4439004774551</v>
+      </c>
+      <c r="G20">
+        <v>1.830939016216406</v>
+      </c>
+      <c r="H20">
+        <v>8.794647348505997</v>
+      </c>
+      <c r="I20">
+        <v>14.01430033267212</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>15.69768388357529</v>
+      </c>
+      <c r="D21">
+        <v>39.84483447481416</v>
+      </c>
+      <c r="E21">
+        <v>42.73142194402926</v>
+      </c>
+      <c r="F21">
+        <v>186.4439004774551</v>
+      </c>
+      <c r="G21">
+        <v>1.830939016216406</v>
+      </c>
+      <c r="H21">
+        <v>8.794647348505997</v>
+      </c>
+      <c r="I21">
+        <v>14.01430033267212</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>15.69768388357529</v>
+      </c>
+      <c r="D22">
+        <v>39.84483447481416</v>
+      </c>
+      <c r="E22">
+        <v>42.73142194402926</v>
+      </c>
+      <c r="F22">
+        <v>186.4439004774551</v>
+      </c>
+      <c r="G22">
+        <v>1.830939016216406</v>
+      </c>
+      <c r="H22">
+        <v>8.794647348505997</v>
+      </c>
+      <c r="I22">
+        <v>14.01430033267212</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>15.69768388357529</v>
+      </c>
+      <c r="D23">
+        <v>39.84483447481416</v>
+      </c>
+      <c r="E23">
+        <v>42.73142194402926</v>
+      </c>
+      <c r="F23">
+        <v>186.4439004774551</v>
+      </c>
+      <c r="G23">
+        <v>1.830939016216406</v>
+      </c>
+      <c r="H23">
+        <v>8.794647348505997</v>
+      </c>
+      <c r="I23">
+        <v>14.01430033267212</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>15.69768388357529</v>
+      </c>
+      <c r="D24">
+        <v>39.84483447481416</v>
+      </c>
+      <c r="E24">
+        <v>42.73142194402926</v>
+      </c>
+      <c r="F24">
+        <v>186.4439004774551</v>
+      </c>
+      <c r="G24">
+        <v>1.830939016216406</v>
+      </c>
+      <c r="H24">
+        <v>8.794647348505997</v>
+      </c>
+      <c r="I24">
+        <v>14.01430033267212</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>15.69768388357529</v>
+      </c>
+      <c r="D25">
+        <v>39.84483447481416</v>
+      </c>
+      <c r="E25">
+        <v>42.73142194402926</v>
+      </c>
+      <c r="F25">
+        <v>186.4439004774551</v>
+      </c>
+      <c r="G25">
+        <v>1.830939016216406</v>
+      </c>
+      <c r="H25">
+        <v>8.794647348505997</v>
+      </c>
+      <c r="I25">
+        <v>14.01430033267212</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_line/loading_percent.xlsx
@@ -426,37 +426,49 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
-        <v>16.78829496238939</v>
+        <v>7.559516090224524</v>
       </c>
       <c r="D2">
-        <v>41.68778761949522</v>
+        <v>5.465822424965745</v>
       </c>
       <c r="E2">
-        <v>45.18618998177569</v>
+        <v>8.753894261875978</v>
       </c>
       <c r="F2">
-        <v>194.8023430593147</v>
+        <v>28.0593879206004</v>
       </c>
       <c r="G2">
-        <v>1.803495408048701</v>
+        <v>34.68435196145695</v>
       </c>
       <c r="H2">
-        <v>9.503676488823141</v>
+        <v>2.989853608322755</v>
       </c>
       <c r="I2">
-        <v>15.17749950313033</v>
+        <v>3.493842785080902</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.92832574873758</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>21.22594117044643</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.259161153991369</v>
+      </c>
+      <c r="M2">
+        <v>24.0865006833597</v>
       </c>
       <c r="N2">
+        <v>5.923802453973462</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
@@ -467,37 +479,49 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
-        <v>14.17582819085914</v>
+        <v>7.124092137678482</v>
       </c>
       <c r="D3">
-        <v>37.06530826250359</v>
+        <v>5.199047992633684</v>
       </c>
       <c r="E3">
-        <v>38.95087544624651</v>
+        <v>8.40911611810783</v>
       </c>
       <c r="F3">
-        <v>173.6030304287042</v>
+        <v>27.61315632222255</v>
       </c>
       <c r="G3">
-        <v>1.871504382565566</v>
+        <v>34.11056643848428</v>
       </c>
       <c r="H3">
-        <v>7.726217604351578</v>
+        <v>3.270007069104465</v>
       </c>
       <c r="I3">
-        <v>12.3000507262964</v>
+        <v>3.739979490149482</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.92285127996455</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>20.95561702721032</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.143040444493806</v>
+      </c>
+      <c r="M3">
+        <v>22.55224054580047</v>
       </c>
       <c r="N3">
+        <v>5.825423186599146</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
@@ -508,37 +532,49 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
-        <v>12.85131198401366</v>
+        <v>6.840445043597139</v>
       </c>
       <c r="D4">
-        <v>34.54116751344701</v>
+        <v>5.029241627451165</v>
       </c>
       <c r="E4">
-        <v>35.70781351841465</v>
+        <v>8.189559202080703</v>
       </c>
       <c r="F4">
-        <v>161.9309889839123</v>
+        <v>27.34593764411554</v>
       </c>
       <c r="G4">
-        <v>1.905604672126717</v>
+        <v>33.77089899046396</v>
       </c>
       <c r="H4">
-        <v>6.82009852048633</v>
+        <v>3.447792330957014</v>
       </c>
       <c r="I4">
-        <v>10.85496607833949</v>
+        <v>3.896957523046751</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.92376780044085</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>20.79283126414193</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.069532740238312</v>
+      </c>
+      <c r="M4">
+        <v>21.55662122484144</v>
       </c>
       <c r="N4">
+        <v>5.764637577740717</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
@@ -549,37 +585,49 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
-        <v>12.32849640707637</v>
+        <v>6.712059923103203</v>
       </c>
       <c r="D5">
-        <v>33.51960771341228</v>
+        <v>4.960934889908174</v>
       </c>
       <c r="E5">
-        <v>34.4442395791873</v>
+        <v>8.097056164554422</v>
       </c>
       <c r="F5">
-        <v>157.248289477666</v>
+        <v>27.22434501324423</v>
       </c>
       <c r="G5">
-        <v>1.918701876216824</v>
+        <v>33.61089279563299</v>
       </c>
       <c r="H5">
-        <v>6.470078725505966</v>
+        <v>3.522263225539638</v>
       </c>
       <c r="I5">
-        <v>10.29891305787589</v>
+        <v>3.96514814789859</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.92066471530391</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>20.71512757117475</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.037833440821591</v>
+      </c>
+      <c r="M5">
+        <v>21.1375484347812</v>
       </c>
       <c r="N5">
+        <v>5.740911469489582</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
@@ -590,37 +638,49 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
-        <v>12.21976945265584</v>
+        <v>6.679854369616709</v>
       </c>
       <c r="D6">
-        <v>33.31789610090687</v>
+        <v>4.952379379516024</v>
       </c>
       <c r="E6">
-        <v>34.21888494306512</v>
+        <v>8.080219296521275</v>
       </c>
       <c r="F6">
-        <v>156.3402991642843</v>
+        <v>27.18661819278086</v>
       </c>
       <c r="G6">
-        <v>1.921109421120676</v>
+        <v>33.55425724822834</v>
       </c>
       <c r="H6">
-        <v>6.406498443855097</v>
+        <v>3.535380122094998</v>
       </c>
       <c r="I6">
-        <v>10.19605898023067</v>
+        <v>3.980039277161069</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.91469967275135</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>20.6873866182754</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.031074469698384</v>
+      </c>
+      <c r="M6">
+        <v>21.06725959852739</v>
       </c>
       <c r="N6">
+        <v>5.738355358134902</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
@@ -631,37 +691,49 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
-        <v>12.77885353999372</v>
+        <v>6.810237593976755</v>
       </c>
       <c r="D7">
-        <v>34.43445774971504</v>
+        <v>5.036029653949347</v>
       </c>
       <c r="E7">
-        <v>35.63465406342533</v>
+        <v>8.184648599543639</v>
       </c>
       <c r="F7">
-        <v>161.4894612766316</v>
+        <v>27.29636755264428</v>
       </c>
       <c r="G7">
-        <v>1.906604653883302</v>
+        <v>33.68651480876624</v>
       </c>
       <c r="H7">
-        <v>6.79598398064752</v>
+        <v>3.45057173526129</v>
       </c>
       <c r="I7">
-        <v>10.81072230714376</v>
+        <v>3.90712717288565</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.90869473601057</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>20.75128080980885</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.065146019174052</v>
+      </c>
+      <c r="M7">
+        <v>21.55128867351768</v>
       </c>
       <c r="N7">
+        <v>5.768090442279433</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
@@ -672,37 +744,49 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
-        <v>15.69768388357529</v>
+        <v>7.377539156045561</v>
       </c>
       <c r="D8">
-        <v>39.84483447481416</v>
+        <v>5.384689568192986</v>
       </c>
       <c r="E8">
-        <v>42.73142194402926</v>
+        <v>8.632049394688904</v>
       </c>
       <c r="F8">
-        <v>186.4439004774551</v>
+        <v>27.84203271611286</v>
       </c>
       <c r="G8">
-        <v>1.830939016216406</v>
+        <v>34.37731502034536</v>
       </c>
       <c r="H8">
-        <v>8.794647348505997</v>
+        <v>3.087525601869366</v>
       </c>
       <c r="I8">
-        <v>14.01430033267212</v>
+        <v>3.589474354855306</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.90577002319867</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>21.07933998646085</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.214492746635216</v>
+      </c>
+      <c r="M8">
+        <v>23.56884687415242</v>
       </c>
       <c r="N8">
+        <v>5.894874390584333</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
@@ -713,37 +797,49 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
-        <v>15.69768388357529</v>
+        <v>8.407130243170013</v>
       </c>
       <c r="D9">
-        <v>39.84483447481416</v>
+        <v>6.006333429998914</v>
       </c>
       <c r="E9">
-        <v>42.73142194402926</v>
+        <v>9.451041283385408</v>
       </c>
       <c r="F9">
-        <v>186.4439004774551</v>
+        <v>29.04802701405723</v>
       </c>
       <c r="G9">
-        <v>1.830939016216406</v>
+        <v>35.97614514725242</v>
       </c>
       <c r="H9">
-        <v>8.794647348505997</v>
+        <v>2.416979769289911</v>
       </c>
       <c r="I9">
-        <v>14.01430033267212</v>
+        <v>2.996610419393182</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.96267368436469</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.81866262352322</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.49637339269645</v>
+      </c>
+      <c r="M9">
+        <v>27.09967842119948</v>
       </c>
       <c r="N9">
+        <v>6.133571970635619</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
@@ -754,37 +850,49 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
-        <v>15.69768388357529</v>
+        <v>9.036457782735646</v>
       </c>
       <c r="D10">
-        <v>39.84483447481416</v>
+        <v>6.416232312642163</v>
       </c>
       <c r="E10">
-        <v>42.73142194402926</v>
+        <v>9.909980430430537</v>
       </c>
       <c r="F10">
-        <v>186.4439004774551</v>
+        <v>29.70782819974371</v>
       </c>
       <c r="G10">
-        <v>1.830939016216406</v>
+        <v>36.81890131814104</v>
       </c>
       <c r="H10">
-        <v>8.794647348505997</v>
+        <v>1.982087060352266</v>
       </c>
       <c r="I10">
-        <v>14.01430033267212</v>
+        <v>2.602256348366554</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.9528938657101</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>22.19770413562594</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.643357479822654</v>
+      </c>
+      <c r="M10">
+        <v>29.43540262777505</v>
       </c>
       <c r="N10">
+        <v>6.25491847021225</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
@@ -795,37 +903,49 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
-        <v>15.69768388357529</v>
+        <v>8.95100468452225</v>
       </c>
       <c r="D11">
-        <v>39.84483447481416</v>
+        <v>6.44889577607326</v>
       </c>
       <c r="E11">
-        <v>42.73142194402926</v>
+        <v>9.269308163466249</v>
       </c>
       <c r="F11">
-        <v>186.4439004774551</v>
+        <v>27.92545799812547</v>
       </c>
       <c r="G11">
-        <v>1.830939016216406</v>
+        <v>34.03046544920772</v>
       </c>
       <c r="H11">
-        <v>8.794647348505997</v>
+        <v>2.88229931354139</v>
       </c>
       <c r="I11">
-        <v>14.01430033267212</v>
+        <v>2.515349121096044</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.3382321263616</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.93864552720473</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.327009440076889</v>
+      </c>
+      <c r="M11">
+        <v>30.43982046069266</v>
       </c>
       <c r="N11">
+        <v>5.881277681019414</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
@@ -836,37 +956,49 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
-        <v>15.69768388357529</v>
+        <v>8.783963890671529</v>
       </c>
       <c r="D12">
-        <v>39.84483447481416</v>
+        <v>6.378736524468717</v>
       </c>
       <c r="E12">
-        <v>42.73142194402926</v>
+        <v>8.664712378169437</v>
       </c>
       <c r="F12">
-        <v>186.4439004774551</v>
+        <v>26.33784190816912</v>
       </c>
       <c r="G12">
-        <v>1.830939016216406</v>
+        <v>31.59174531303732</v>
       </c>
       <c r="H12">
-        <v>8.794647348505997</v>
+        <v>4.228118512557674</v>
       </c>
       <c r="I12">
-        <v>14.01430033267212</v>
+        <v>2.504825043611858</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.8472781617967</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>19.85375223506002</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.07982598708607</v>
+      </c>
+      <c r="M12">
+        <v>30.81079089712379</v>
       </c>
       <c r="N12">
+        <v>5.577025974284325</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
@@ -877,37 +1009,49 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
-        <v>15.69768388357529</v>
+        <v>8.504211366807986</v>
       </c>
       <c r="D13">
-        <v>39.84483447481416</v>
+        <v>6.232733028234057</v>
       </c>
       <c r="E13">
-        <v>42.73142194402926</v>
+        <v>8.042522007657483</v>
       </c>
       <c r="F13">
-        <v>186.4439004774551</v>
+        <v>24.7228834032151</v>
       </c>
       <c r="G13">
-        <v>1.830939016216406</v>
+        <v>29.13307846370278</v>
       </c>
       <c r="H13">
-        <v>8.794647348505997</v>
+        <v>5.645030539953513</v>
       </c>
       <c r="I13">
-        <v>14.01430033267212</v>
+        <v>2.554205295955391</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.4012262176772</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>18.77411873035082</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.868964535554615</v>
+      </c>
+      <c r="M13">
+        <v>30.72956680685675</v>
       </c>
       <c r="N13">
+        <v>5.319123353472177</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
@@ -918,37 +1062,49 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
-        <v>15.69768388357529</v>
+        <v>8.247697150647765</v>
       </c>
       <c r="D14">
-        <v>39.84483447481416</v>
+        <v>6.096009333704134</v>
       </c>
       <c r="E14">
-        <v>42.73142194402926</v>
+        <v>7.60539872301466</v>
       </c>
       <c r="F14">
-        <v>186.4439004774551</v>
+        <v>23.57356785640574</v>
       </c>
       <c r="G14">
-        <v>1.830939016216406</v>
+        <v>27.3907899691164</v>
       </c>
       <c r="H14">
-        <v>8.794647348505997</v>
+        <v>6.655728352477559</v>
       </c>
       <c r="I14">
-        <v>14.01430033267212</v>
+        <v>2.627788425910068</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.11132105563777</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>18.01735678000222</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.747017772939114</v>
+      </c>
+      <c r="M14">
+        <v>30.467308687607</v>
       </c>
       <c r="N14">
+        <v>5.171502122738233</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
@@ -959,37 +1115,49 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
-        <v>15.69768388357529</v>
+        <v>8.151761311287183</v>
       </c>
       <c r="D15">
-        <v>39.84483447481416</v>
+        <v>6.048915757143341</v>
       </c>
       <c r="E15">
-        <v>42.73142194402926</v>
+        <v>7.490391651664166</v>
       </c>
       <c r="F15">
-        <v>186.4439004774551</v>
+        <v>23.27568634251819</v>
       </c>
       <c r="G15">
-        <v>1.830939016216406</v>
+        <v>26.94170884770359</v>
       </c>
       <c r="H15">
-        <v>8.794647348505997</v>
+        <v>6.893629082297322</v>
       </c>
       <c r="I15">
-        <v>14.01430033267212</v>
+        <v>2.666502354336215</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.04627613792728</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.82297651017181</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.71844864391392</v>
+      </c>
+      <c r="M15">
+        <v>30.30598466501647</v>
       </c>
       <c r="N15">
+        <v>5.140255171780748</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
@@ -1000,37 +1168,49 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
-        <v>15.69768388357529</v>
+        <v>7.913248063358745</v>
       </c>
       <c r="D16">
-        <v>39.84483447481416</v>
+        <v>5.904021994130336</v>
       </c>
       <c r="E16">
-        <v>42.73142194402926</v>
+        <v>7.394379409231984</v>
       </c>
       <c r="F16">
-        <v>186.4439004774551</v>
+        <v>23.26581861146661</v>
       </c>
       <c r="G16">
-        <v>1.830939016216406</v>
+        <v>26.98095610417067</v>
       </c>
       <c r="H16">
-        <v>8.794647348505997</v>
+        <v>6.721861002399367</v>
       </c>
       <c r="I16">
-        <v>14.01430033267212</v>
+        <v>2.829243346657083</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.13615963667838</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.84688042458122</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.693431045872221</v>
+      </c>
+      <c r="M16">
+        <v>29.36651319044827</v>
       </c>
       <c r="N16">
+        <v>5.139404006568423</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
@@ -1041,37 +1221,49 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
-        <v>15.69768388357529</v>
+        <v>7.868849088841869</v>
       </c>
       <c r="D17">
-        <v>39.84483447481416</v>
+        <v>5.86742048269936</v>
       </c>
       <c r="E17">
-        <v>42.73142194402926</v>
+        <v>7.552186771050144</v>
       </c>
       <c r="F17">
-        <v>186.4439004774551</v>
+        <v>23.86988469750043</v>
       </c>
       <c r="G17">
-        <v>1.830939016216406</v>
+        <v>27.93808149284184</v>
       </c>
       <c r="H17">
-        <v>8.794647348505997</v>
+        <v>6.029802506380736</v>
       </c>
       <c r="I17">
-        <v>14.01430033267212</v>
+        <v>2.916061279621335</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.35541184395499</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.2643875011064</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.733459216886127</v>
+      </c>
+      <c r="M17">
+        <v>28.7758366037179</v>
       </c>
       <c r="N17">
+        <v>5.21180737682084</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
@@ -1082,37 +1274,49 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
-        <v>15.69768388357529</v>
+        <v>8.009541365909561</v>
       </c>
       <c r="D18">
-        <v>39.84483447481416</v>
+        <v>5.914654864837416</v>
       </c>
       <c r="E18">
-        <v>42.73142194402926</v>
+        <v>7.977824352853339</v>
       </c>
       <c r="F18">
-        <v>186.4439004774551</v>
+        <v>25.11253310094139</v>
       </c>
       <c r="G18">
-        <v>1.830939016216406</v>
+        <v>29.86230265372517</v>
       </c>
       <c r="H18">
-        <v>8.794647348505997</v>
+        <v>4.846571668736859</v>
       </c>
       <c r="I18">
-        <v>14.01430033267212</v>
+        <v>2.93326695448865</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.72788413117864</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.10673242253484</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.865900648718116</v>
+      </c>
+      <c r="M18">
+        <v>28.43043363888723</v>
       </c>
       <c r="N18">
+        <v>5.385270510009907</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
@@ -1123,37 +1327,49 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
-        <v>15.69768388357529</v>
+        <v>8.246053961731006</v>
       </c>
       <c r="D19">
-        <v>39.84483447481416</v>
+        <v>6.034935801183501</v>
       </c>
       <c r="E19">
-        <v>42.73142194402926</v>
+        <v>8.614536535926302</v>
       </c>
       <c r="F19">
-        <v>186.4439004774551</v>
+        <v>26.71736038299147</v>
       </c>
       <c r="G19">
-        <v>1.830939016216406</v>
+        <v>32.31543465920971</v>
       </c>
       <c r="H19">
-        <v>8.794647348505997</v>
+        <v>3.477809482982827</v>
       </c>
       <c r="I19">
-        <v>14.01430033267212</v>
+        <v>2.910150351141169</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.18564196149491</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>20.18301552208176</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.100012554465422</v>
+      </c>
+      <c r="M19">
+        <v>28.31213860479293</v>
       </c>
       <c r="N19">
+        <v>5.67228721854624</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
@@ -1164,37 +1380,49 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
-        <v>15.69768388357529</v>
+        <v>8.803746326366023</v>
       </c>
       <c r="D20">
-        <v>39.84483447481416</v>
+        <v>6.329331273404806</v>
       </c>
       <c r="E20">
-        <v>42.73142194402926</v>
+        <v>9.777559946342574</v>
       </c>
       <c r="F20">
-        <v>186.4439004774551</v>
+        <v>29.38442957212384</v>
       </c>
       <c r="G20">
-        <v>1.830939016216406</v>
+        <v>36.34179200460635</v>
       </c>
       <c r="H20">
-        <v>8.794647348505997</v>
+        <v>2.098936628887856</v>
       </c>
       <c r="I20">
-        <v>14.01430033267212</v>
+        <v>2.738452525640375</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.90521603188889</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21.97189350318592</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.592232821605092</v>
+      </c>
+      <c r="M20">
+        <v>28.83944391848903</v>
       </c>
       <c r="N20">
+        <v>6.231704805269311</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
@@ -1205,37 +1433,49 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
-        <v>15.69768388357529</v>
+        <v>9.339977076625011</v>
       </c>
       <c r="D21">
-        <v>39.84483447481416</v>
+        <v>6.656311326255911</v>
       </c>
       <c r="E21">
-        <v>42.73142194402926</v>
+        <v>10.27368499497078</v>
       </c>
       <c r="F21">
-        <v>186.4439004774551</v>
+        <v>30.29633823714362</v>
       </c>
       <c r="G21">
-        <v>1.830939016216406</v>
+        <v>37.61739549178271</v>
       </c>
       <c r="H21">
-        <v>8.794647348505997</v>
+        <v>1.7237893302097</v>
       </c>
       <c r="I21">
-        <v>14.01430033267212</v>
+        <v>2.588509586579113</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.02343062150563</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>22.54299336864825</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.777240810983696</v>
+      </c>
+      <c r="M21">
+        <v>30.55069329532636</v>
       </c>
       <c r="N21">
+        <v>6.404377517360755</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
@@ -1246,37 +1486,49 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
-        <v>15.69768388357529</v>
+        <v>9.684036389461799</v>
       </c>
       <c r="D22">
-        <v>39.84483447481416</v>
+        <v>6.847229602746106</v>
       </c>
       <c r="E22">
-        <v>42.73142194402926</v>
+        <v>10.54245782236478</v>
       </c>
       <c r="F22">
-        <v>186.4439004774551</v>
+        <v>30.83188522532251</v>
       </c>
       <c r="G22">
-        <v>1.830939016216406</v>
+        <v>38.37283310762318</v>
       </c>
       <c r="H22">
-        <v>8.794647348505997</v>
+        <v>1.623966134413531</v>
       </c>
       <c r="I22">
-        <v>14.01430033267212</v>
+        <v>2.775746758694647</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.08955604470509</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>22.88441202815501</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.876413340020032</v>
+      </c>
+      <c r="M22">
+        <v>31.62300744960155</v>
       </c>
       <c r="N22">
+        <v>6.484791138160535</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
@@ -1287,37 +1539,49 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
-        <v>15.69768388357529</v>
+        <v>9.526863626176834</v>
       </c>
       <c r="D23">
-        <v>39.84483447481416</v>
+        <v>6.738928109878382</v>
       </c>
       <c r="E23">
-        <v>42.73142194402926</v>
+        <v>10.40326051588798</v>
       </c>
       <c r="F23">
-        <v>186.4439004774551</v>
+        <v>30.59613461526988</v>
       </c>
       <c r="G23">
-        <v>1.830939016216406</v>
+        <v>38.05481234915551</v>
       </c>
       <c r="H23">
-        <v>8.794647348505997</v>
+        <v>1.615269826684802</v>
       </c>
       <c r="I23">
-        <v>14.01430033267212</v>
+        <v>2.671665381408537</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.07083743018507</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>22.7456620234044</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.827787642576939</v>
+      </c>
+      <c r="M23">
+        <v>31.05497279597036</v>
       </c>
       <c r="N23">
+        <v>6.437803413135222</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
@@ -1328,37 +1592,49 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
-        <v>15.69768388357529</v>
+        <v>8.866014182108659</v>
       </c>
       <c r="D24">
-        <v>39.84483447481416</v>
+        <v>6.32705513084358</v>
       </c>
       <c r="E24">
-        <v>42.73142194402926</v>
+        <v>9.85484253375159</v>
       </c>
       <c r="F24">
-        <v>186.4439004774551</v>
+        <v>29.63621131811978</v>
       </c>
       <c r="G24">
-        <v>1.830939016216406</v>
+        <v>36.74157912953248</v>
       </c>
       <c r="H24">
-        <v>8.794647348505997</v>
+        <v>2.078960773650089</v>
       </c>
       <c r="I24">
-        <v>14.01430033267212</v>
+        <v>2.716184232422946</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.98453872713356</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>22.15847448896125</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.633188058836868</v>
+      </c>
+      <c r="M24">
+        <v>28.81075923005064</v>
       </c>
       <c r="N24">
+        <v>6.265120152279298</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
@@ -1369,37 +1645,49 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
-        <v>15.69768388357529</v>
+        <v>8.098415237976486</v>
       </c>
       <c r="D25">
-        <v>39.84483447481416</v>
+        <v>5.855714477382851</v>
       </c>
       <c r="E25">
-        <v>42.73142194402926</v>
+        <v>9.230714181403695</v>
       </c>
       <c r="F25">
-        <v>186.4439004774551</v>
+        <v>28.63420683716902</v>
       </c>
       <c r="G25">
-        <v>1.830939016216406</v>
+        <v>35.39201407724322</v>
       </c>
       <c r="H25">
-        <v>8.794647348505997</v>
+        <v>2.596747878594738</v>
       </c>
       <c r="I25">
-        <v>14.01430033267212</v>
+        <v>3.169881877144196</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.91643672982863</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>21.54582290126555</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.415367300590525</v>
+      </c>
+      <c r="M25">
+        <v>26.19009812586407</v>
       </c>
       <c r="N25">
+        <v>6.075958139358559</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">

--- a/Code/Results/Cases/Case_0_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.559516090224524</v>
+        <v>6.166070392125426</v>
       </c>
       <c r="D2">
-        <v>5.465822424965745</v>
+        <v>5.792604575446115</v>
       </c>
       <c r="E2">
-        <v>8.753894261875978</v>
+        <v>8.634490181753787</v>
       </c>
       <c r="F2">
-        <v>28.0593879206004</v>
+        <v>25.91649699023764</v>
       </c>
       <c r="G2">
-        <v>34.68435196145695</v>
+        <v>30.84520573278022</v>
       </c>
       <c r="H2">
-        <v>2.989853608322755</v>
+        <v>2.82115764244402</v>
       </c>
       <c r="I2">
-        <v>3.493842785080902</v>
+        <v>3.272566632891653</v>
       </c>
       <c r="J2">
-        <v>11.92832574873758</v>
+        <v>11.31778697914237</v>
       </c>
       <c r="K2">
-        <v>21.22594117044643</v>
+        <v>19.25549273679125</v>
       </c>
       <c r="L2">
-        <v>6.259161153991369</v>
+        <v>15.49209471004353</v>
       </c>
       <c r="M2">
-        <v>24.0865006833597</v>
+        <v>13.10930755460421</v>
       </c>
       <c r="N2">
-        <v>5.923802453973462</v>
+        <v>6.07879064395688</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>24.0738816202921</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.275576456027318</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.124092137678482</v>
+        <v>5.811961504247077</v>
       </c>
       <c r="D3">
-        <v>5.199047992633684</v>
+        <v>5.502448095413954</v>
       </c>
       <c r="E3">
-        <v>8.40911611810783</v>
+        <v>8.310761818015868</v>
       </c>
       <c r="F3">
-        <v>27.61315632222255</v>
+        <v>25.65885668874967</v>
       </c>
       <c r="G3">
-        <v>34.11056643848428</v>
+        <v>30.6702788227797</v>
       </c>
       <c r="H3">
-        <v>3.270007069104465</v>
+        <v>3.07121757273889</v>
       </c>
       <c r="I3">
-        <v>3.739979490149482</v>
+        <v>3.481885148220092</v>
       </c>
       <c r="J3">
-        <v>11.92285127996455</v>
+        <v>11.3175320060291</v>
       </c>
       <c r="K3">
-        <v>20.95561702721032</v>
+        <v>19.13601144025005</v>
       </c>
       <c r="L3">
-        <v>6.143040444493806</v>
+        <v>15.50077862590559</v>
       </c>
       <c r="M3">
-        <v>22.55224054580047</v>
+        <v>12.9300846498739</v>
       </c>
       <c r="N3">
-        <v>5.825423186599146</v>
+        <v>5.980276385213532</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>22.53080060888773</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.175533665368637</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.840445043597139</v>
+        <v>5.580898456647825</v>
       </c>
       <c r="D4">
-        <v>5.029241627451165</v>
+        <v>5.317741299475669</v>
       </c>
       <c r="E4">
-        <v>8.189559202080703</v>
+        <v>8.104623913899594</v>
       </c>
       <c r="F4">
-        <v>27.34593764411554</v>
+        <v>25.50723252268715</v>
       </c>
       <c r="G4">
-        <v>33.77089899046396</v>
+        <v>30.58128882935761</v>
       </c>
       <c r="H4">
-        <v>3.447792330957014</v>
+        <v>3.230067846916875</v>
       </c>
       <c r="I4">
-        <v>3.896957523046751</v>
+        <v>3.61583814963165</v>
       </c>
       <c r="J4">
-        <v>11.92376780044085</v>
+        <v>11.31874594103606</v>
       </c>
       <c r="K4">
-        <v>20.79283126414193</v>
+        <v>19.06493814926254</v>
       </c>
       <c r="L4">
-        <v>6.069532740238312</v>
+        <v>15.5018906477979</v>
       </c>
       <c r="M4">
-        <v>21.55662122484144</v>
+        <v>12.84018568819286</v>
       </c>
       <c r="N4">
-        <v>5.764637577740717</v>
+        <v>5.917748142697538</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>21.52808360949216</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.114231849857415</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.712059923103203</v>
+        <v>5.475204469633639</v>
       </c>
       <c r="D5">
-        <v>4.960934889908174</v>
+        <v>5.243070545328926</v>
       </c>
       <c r="E5">
-        <v>8.097056164554422</v>
+        <v>8.017821874648916</v>
       </c>
       <c r="F5">
-        <v>27.22434501324423</v>
+        <v>25.43418304042179</v>
       </c>
       <c r="G5">
-        <v>33.61089279563299</v>
+        <v>30.52764001418689</v>
       </c>
       <c r="H5">
-        <v>3.522263225539638</v>
+        <v>3.296640654718358</v>
       </c>
       <c r="I5">
-        <v>3.96514814789859</v>
+        <v>3.674937528079694</v>
       </c>
       <c r="J5">
-        <v>11.92066471530391</v>
+        <v>11.31552505667517</v>
       </c>
       <c r="K5">
-        <v>20.71512757117475</v>
+        <v>19.02585812834129</v>
       </c>
       <c r="L5">
-        <v>6.037833440821591</v>
+        <v>15.4920963090971</v>
       </c>
       <c r="M5">
-        <v>21.1375484347812</v>
+        <v>12.80171912509018</v>
       </c>
       <c r="N5">
-        <v>5.740911469489582</v>
+        <v>5.890717635327643</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>21.10565400605193</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.090367276740186</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.679854369616709</v>
+        <v>5.447593083138286</v>
       </c>
       <c r="D6">
-        <v>4.952379379516024</v>
+        <v>5.233242426064546</v>
       </c>
       <c r="E6">
-        <v>8.080219296521275</v>
+        <v>8.0020733131624</v>
       </c>
       <c r="F6">
-        <v>27.18661819278086</v>
+        <v>25.40641654576172</v>
       </c>
       <c r="G6">
-        <v>33.55425724822834</v>
+        <v>30.49239018329034</v>
       </c>
       <c r="H6">
-        <v>3.535380122094998</v>
+        <v>3.308363950434702</v>
       </c>
       <c r="I6">
-        <v>3.980039277161069</v>
+        <v>3.688849185309558</v>
       </c>
       <c r="J6">
-        <v>11.91469967275135</v>
+        <v>11.310068988771</v>
       </c>
       <c r="K6">
-        <v>20.6873866182754</v>
+        <v>19.00637165126044</v>
       </c>
       <c r="L6">
-        <v>6.031074469698384</v>
+        <v>15.47920764237195</v>
       </c>
       <c r="M6">
-        <v>21.06725959852739</v>
+        <v>12.78712509478723</v>
       </c>
       <c r="N6">
-        <v>5.738355358134902</v>
+        <v>5.884926395213109</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>21.0347552745027</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.08772329945365</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.810237593976755</v>
+        <v>5.5618932468846</v>
       </c>
       <c r="D7">
-        <v>5.036029653949347</v>
+        <v>5.330975386196648</v>
       </c>
       <c r="E7">
-        <v>8.184648599543639</v>
+        <v>8.102771309276037</v>
       </c>
       <c r="F7">
-        <v>27.29636755264428</v>
+        <v>25.43856826074109</v>
       </c>
       <c r="G7">
-        <v>33.68651480876624</v>
+        <v>30.55886723213658</v>
       </c>
       <c r="H7">
-        <v>3.45057173526129</v>
+        <v>3.233257646735354</v>
       </c>
       <c r="I7">
-        <v>3.90712717288565</v>
+        <v>3.627990249388487</v>
       </c>
       <c r="J7">
-        <v>11.90869473601057</v>
+        <v>11.26293671807732</v>
       </c>
       <c r="K7">
-        <v>20.75128080980885</v>
+        <v>19.01260562820488</v>
       </c>
       <c r="L7">
-        <v>6.065146019174052</v>
+        <v>15.45802378354008</v>
       </c>
       <c r="M7">
-        <v>21.55128867351768</v>
+        <v>12.804892286036</v>
       </c>
       <c r="N7">
-        <v>5.768090442279433</v>
+        <v>5.913345264766185</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>21.52276293862353</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.117139490144242</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.377539156045561</v>
+        <v>6.041331997750068</v>
       </c>
       <c r="D8">
-        <v>5.384689568192986</v>
+        <v>5.725039693706167</v>
       </c>
       <c r="E8">
-        <v>8.632049394688904</v>
+        <v>8.528636347838171</v>
       </c>
       <c r="F8">
-        <v>27.84203271611286</v>
+        <v>25.68987382503147</v>
       </c>
       <c r="G8">
-        <v>34.37731502034536</v>
+        <v>30.85562026873595</v>
       </c>
       <c r="H8">
-        <v>3.087525601869366</v>
+        <v>2.910486628573953</v>
       </c>
       <c r="I8">
-        <v>3.589474354855306</v>
+        <v>3.359544759653772</v>
       </c>
       <c r="J8">
-        <v>11.90577002319867</v>
+        <v>11.16153307911257</v>
       </c>
       <c r="K8">
-        <v>21.07933998646085</v>
+        <v>19.11451077349038</v>
       </c>
       <c r="L8">
-        <v>6.214492746635216</v>
+        <v>15.41606463643632</v>
       </c>
       <c r="M8">
-        <v>23.56884687415242</v>
+        <v>12.97227344567264</v>
       </c>
       <c r="N8">
-        <v>5.894874390584333</v>
+        <v>6.03896700699435</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>23.5537046151382</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.244638646243734</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.407130243170013</v>
+        <v>6.885057256149121</v>
       </c>
       <c r="D9">
-        <v>6.006333429998914</v>
+        <v>6.405522182790111</v>
       </c>
       <c r="E9">
-        <v>9.451041283385408</v>
+        <v>9.299005012039075</v>
       </c>
       <c r="F9">
-        <v>29.04802701405723</v>
+        <v>26.4026583196338</v>
       </c>
       <c r="G9">
-        <v>35.97614514725242</v>
+        <v>31.53437122216711</v>
       </c>
       <c r="H9">
-        <v>2.416979769289911</v>
+        <v>2.313337934154249</v>
       </c>
       <c r="I9">
-        <v>2.996610419393182</v>
+        <v>2.855358803661242</v>
       </c>
       <c r="J9">
-        <v>11.96267368436469</v>
+        <v>11.14919483255043</v>
       </c>
       <c r="K9">
-        <v>21.81866262352322</v>
+        <v>19.4557089700774</v>
       </c>
       <c r="L9">
-        <v>6.49637339269645</v>
+        <v>15.40019439765407</v>
       </c>
       <c r="M9">
-        <v>27.09967842119948</v>
+        <v>13.54257930678295</v>
       </c>
       <c r="N9">
-        <v>6.133571970635619</v>
+        <v>6.277046579924886</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>27.09775720612672</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.490099362392669</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.036457782735646</v>
+        <v>7.449914234999248</v>
       </c>
       <c r="D10">
-        <v>6.416232312642163</v>
+        <v>6.883309592107779</v>
       </c>
       <c r="E10">
-        <v>9.909980430430537</v>
+        <v>9.740729720848842</v>
       </c>
       <c r="F10">
-        <v>29.70782819974371</v>
+        <v>26.61264697603884</v>
       </c>
       <c r="G10">
-        <v>36.81890131814104</v>
+        <v>32.1044927829115</v>
       </c>
       <c r="H10">
-        <v>1.982087060352266</v>
+        <v>1.932655628048268</v>
       </c>
       <c r="I10">
-        <v>2.602256348366554</v>
+        <v>2.527267897668377</v>
       </c>
       <c r="J10">
-        <v>11.9528938657101</v>
+        <v>10.85646516694359</v>
       </c>
       <c r="K10">
-        <v>22.19770413562594</v>
+        <v>19.49001711539127</v>
       </c>
       <c r="L10">
-        <v>6.643357479822654</v>
+        <v>15.20132100831308</v>
       </c>
       <c r="M10">
-        <v>29.43540262777505</v>
+        <v>13.86817940098931</v>
       </c>
       <c r="N10">
-        <v>6.25491847021225</v>
+        <v>6.396119770002636</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>29.43600246235952</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>6.611288465014104</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.95100468452225</v>
+        <v>7.550422976511639</v>
       </c>
       <c r="D11">
-        <v>6.44889577607326</v>
+        <v>6.960997579648581</v>
       </c>
       <c r="E11">
-        <v>9.269308163466249</v>
+        <v>9.138406014428405</v>
       </c>
       <c r="F11">
-        <v>27.92545799812547</v>
+        <v>24.74338405603073</v>
       </c>
       <c r="G11">
-        <v>34.03046544920772</v>
+        <v>30.21931029273781</v>
       </c>
       <c r="H11">
-        <v>2.88229931354139</v>
+        <v>2.860198872256041</v>
       </c>
       <c r="I11">
-        <v>2.515349121096044</v>
+        <v>2.556009543299702</v>
       </c>
       <c r="J11">
-        <v>11.3382321263616</v>
+        <v>9.93044124551257</v>
       </c>
       <c r="K11">
-        <v>20.93864552720473</v>
+        <v>18.23702274579109</v>
       </c>
       <c r="L11">
-        <v>6.327009440076889</v>
+        <v>14.19839906046637</v>
       </c>
       <c r="M11">
-        <v>30.43982046069266</v>
+        <v>13.01458006286925</v>
       </c>
       <c r="N11">
-        <v>5.881277681019414</v>
+        <v>6.115083318343794</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>30.44025801818903</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.186917516125591</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.783963890671529</v>
+        <v>7.525976603399418</v>
       </c>
       <c r="D12">
-        <v>6.378736524468717</v>
+        <v>6.894659504997682</v>
       </c>
       <c r="E12">
-        <v>8.664712378169437</v>
+        <v>8.559291254241771</v>
       </c>
       <c r="F12">
-        <v>26.33784190816912</v>
+        <v>23.26393565734552</v>
       </c>
       <c r="G12">
-        <v>31.59174531303732</v>
+        <v>28.39624288162754</v>
       </c>
       <c r="H12">
-        <v>4.228118512557674</v>
+        <v>4.213720475036014</v>
       </c>
       <c r="I12">
-        <v>2.504825043611858</v>
+        <v>2.568844985859751</v>
       </c>
       <c r="J12">
-        <v>10.8472781617967</v>
+        <v>9.424661669365436</v>
       </c>
       <c r="K12">
-        <v>19.85375223506002</v>
+        <v>17.28775615028779</v>
       </c>
       <c r="L12">
-        <v>6.07982598708607</v>
+        <v>13.49548815644947</v>
       </c>
       <c r="M12">
-        <v>30.81079089712379</v>
+        <v>12.29800842695105</v>
       </c>
       <c r="N12">
-        <v>5.577025974284325</v>
+        <v>5.905619814570417</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>30.81120316762604</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.838673309881746</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.504211366807986</v>
+        <v>7.355321552807062</v>
       </c>
       <c r="D13">
-        <v>6.232733028234057</v>
+        <v>6.706289050826985</v>
       </c>
       <c r="E13">
-        <v>8.042522007657483</v>
+        <v>7.951741305334503</v>
       </c>
       <c r="F13">
-        <v>24.7228834032151</v>
+        <v>21.97483767828419</v>
       </c>
       <c r="G13">
-        <v>29.13307846370278</v>
+        <v>26.26503999507229</v>
       </c>
       <c r="H13">
-        <v>5.645030539953513</v>
+        <v>5.630084003412962</v>
       </c>
       <c r="I13">
-        <v>2.554205295955391</v>
+        <v>2.524388473160112</v>
       </c>
       <c r="J13">
-        <v>10.4012262176772</v>
+        <v>9.207926184086016</v>
       </c>
       <c r="K13">
-        <v>18.77411873035082</v>
+        <v>16.49150016368508</v>
       </c>
       <c r="L13">
-        <v>5.868964535554615</v>
+        <v>12.94841592529115</v>
       </c>
       <c r="M13">
-        <v>30.72956680685675</v>
+        <v>11.63245822064868</v>
       </c>
       <c r="N13">
-        <v>5.319123353472177</v>
+        <v>5.736336669157224</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>30.73027844604913</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.540839028851611</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.247697150647765</v>
+        <v>7.162844155789734</v>
       </c>
       <c r="D14">
-        <v>6.096009333704134</v>
+        <v>6.51937762314829</v>
       </c>
       <c r="E14">
-        <v>7.60539872301466</v>
+        <v>7.521825985831702</v>
       </c>
       <c r="F14">
-        <v>23.57356785640574</v>
+        <v>21.14688289558542</v>
       </c>
       <c r="G14">
-        <v>27.3907899691164</v>
+        <v>24.64295969305866</v>
       </c>
       <c r="H14">
-        <v>6.655728352477559</v>
+        <v>6.638594192285028</v>
       </c>
       <c r="I14">
-        <v>2.627788425910068</v>
+        <v>2.55343340912701</v>
       </c>
       <c r="J14">
-        <v>10.11132105563777</v>
+        <v>9.157900623129606</v>
       </c>
       <c r="K14">
-        <v>18.01735678000222</v>
+        <v>15.99464436771741</v>
       </c>
       <c r="L14">
-        <v>5.747017772939114</v>
+        <v>12.62376231166758</v>
       </c>
       <c r="M14">
-        <v>30.467308687607</v>
+        <v>11.18667000980302</v>
       </c>
       <c r="N14">
-        <v>5.171502122738233</v>
+        <v>5.643789261513442</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>30.4682236207092</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.367960259243833</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.151761311287183</v>
+        <v>7.077924958865765</v>
       </c>
       <c r="D15">
-        <v>6.048915757143341</v>
+        <v>6.451198442692049</v>
       </c>
       <c r="E15">
-        <v>7.490391651664166</v>
+        <v>7.407734782999451</v>
       </c>
       <c r="F15">
-        <v>23.27568634251819</v>
+        <v>20.96700965987774</v>
       </c>
       <c r="G15">
-        <v>26.94170884770359</v>
+        <v>24.18310758190623</v>
       </c>
       <c r="H15">
-        <v>6.893629082297322</v>
+        <v>6.875026930038117</v>
       </c>
       <c r="I15">
-        <v>2.666502354336215</v>
+        <v>2.586318108771842</v>
       </c>
       <c r="J15">
-        <v>10.04627613792728</v>
+        <v>9.18435033210433</v>
       </c>
       <c r="K15">
-        <v>17.82297651017181</v>
+        <v>15.89028261482753</v>
       </c>
       <c r="L15">
-        <v>5.71844864391392</v>
+        <v>12.56173218547616</v>
       </c>
       <c r="M15">
-        <v>30.30598466501647</v>
+        <v>11.08033555280055</v>
       </c>
       <c r="N15">
-        <v>5.140255171780748</v>
+        <v>5.622810014606381</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>30.30692288470475</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.332002632806251</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.913248063358745</v>
+        <v>6.794654297204882</v>
       </c>
       <c r="D16">
-        <v>5.904021994130336</v>
+        <v>6.234070619807214</v>
       </c>
       <c r="E16">
-        <v>7.394379409231984</v>
+        <v>7.304124811599193</v>
       </c>
       <c r="F16">
-        <v>23.26581861146661</v>
+        <v>21.27358895066426</v>
       </c>
       <c r="G16">
-        <v>26.98095610417067</v>
+        <v>23.89300205038175</v>
       </c>
       <c r="H16">
-        <v>6.721861002399367</v>
+        <v>6.692641878219409</v>
       </c>
       <c r="I16">
-        <v>2.829243346657083</v>
+        <v>2.720002911352285</v>
       </c>
       <c r="J16">
-        <v>10.13615963667838</v>
+        <v>9.565969668832155</v>
       </c>
       <c r="K16">
-        <v>17.84688042458122</v>
+        <v>16.1231681145901</v>
       </c>
       <c r="L16">
-        <v>5.693431045872221</v>
+        <v>12.77787416944796</v>
       </c>
       <c r="M16">
-        <v>29.36651319044827</v>
+        <v>11.16749441081978</v>
       </c>
       <c r="N16">
-        <v>5.139404006568423</v>
+        <v>5.602219529955399</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>29.36693859083829</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.343864759932337</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.868849088841869</v>
+        <v>6.68976650917727</v>
       </c>
       <c r="D17">
-        <v>5.86742048269936</v>
+        <v>6.177532335485653</v>
       </c>
       <c r="E17">
-        <v>7.552186771050144</v>
+        <v>7.452385778497002</v>
       </c>
       <c r="F17">
-        <v>23.86988469750043</v>
+        <v>21.92337987147356</v>
       </c>
       <c r="G17">
-        <v>27.93808149284184</v>
+        <v>24.58858913282858</v>
       </c>
       <c r="H17">
-        <v>6.029802506380736</v>
+        <v>5.991112495685822</v>
       </c>
       <c r="I17">
-        <v>2.916061279621335</v>
+        <v>2.792790118815626</v>
       </c>
       <c r="J17">
-        <v>10.35541184395499</v>
+        <v>9.876655530237482</v>
       </c>
       <c r="K17">
-        <v>18.2643875011064</v>
+        <v>16.54890473771695</v>
       </c>
       <c r="L17">
-        <v>5.733459216886127</v>
+        <v>13.11528130598795</v>
       </c>
       <c r="M17">
-        <v>28.7758366037179</v>
+        <v>11.45169801937275</v>
       </c>
       <c r="N17">
-        <v>5.21180737682084</v>
+        <v>5.630953612543705</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>28.775579454657</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.438448305105156</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.009541365909561</v>
+        <v>6.732994219797043</v>
       </c>
       <c r="D18">
-        <v>5.914654864837416</v>
+        <v>6.235987898494394</v>
       </c>
       <c r="E18">
-        <v>7.977824352853339</v>
+        <v>7.861182004960446</v>
       </c>
       <c r="F18">
-        <v>25.11253310094139</v>
+        <v>23.02962718521926</v>
       </c>
       <c r="G18">
-        <v>29.86230265372517</v>
+        <v>26.1501636003773</v>
       </c>
       <c r="H18">
-        <v>4.846571668736859</v>
+        <v>4.796812477003623</v>
       </c>
       <c r="I18">
-        <v>2.93326695448865</v>
+        <v>2.805088668600606</v>
       </c>
       <c r="J18">
-        <v>10.72788413117864</v>
+        <v>10.22982969273874</v>
       </c>
       <c r="K18">
-        <v>19.10673242253484</v>
+        <v>17.25518043067064</v>
       </c>
       <c r="L18">
-        <v>5.865900648718116</v>
+        <v>13.6503373863771</v>
       </c>
       <c r="M18">
-        <v>28.43043363888723</v>
+        <v>11.97933648628232</v>
       </c>
       <c r="N18">
-        <v>5.385270510009907</v>
+        <v>5.736387895885553</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>28.42984231097379</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.645020010042044</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.246053961731006</v>
+        <v>6.848641464899896</v>
       </c>
       <c r="D19">
-        <v>6.034935801183501</v>
+        <v>6.385575436441177</v>
       </c>
       <c r="E19">
-        <v>8.614536535926302</v>
+        <v>8.475980363412409</v>
       </c>
       <c r="F19">
-        <v>26.71736038299147</v>
+        <v>24.38975062666056</v>
       </c>
       <c r="G19">
-        <v>32.31543465920971</v>
+        <v>28.16220734071129</v>
       </c>
       <c r="H19">
-        <v>3.477809482982827</v>
+        <v>3.41376264722397</v>
       </c>
       <c r="I19">
-        <v>2.910150351141169</v>
+        <v>2.788891921581329</v>
       </c>
       <c r="J19">
-        <v>11.18564196149491</v>
+        <v>10.60560114018533</v>
       </c>
       <c r="K19">
-        <v>20.18301552208176</v>
+        <v>18.10930133293697</v>
       </c>
       <c r="L19">
-        <v>6.100012554465422</v>
+        <v>14.28733624698395</v>
       </c>
       <c r="M19">
-        <v>28.31213860479293</v>
+        <v>12.63939725475194</v>
       </c>
       <c r="N19">
-        <v>5.67228721854624</v>
+        <v>5.932297005008274</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>28.31166917556175</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>5.971869114919069</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.803746326366023</v>
+        <v>7.218627953644249</v>
       </c>
       <c r="D20">
-        <v>6.329331273404806</v>
+        <v>6.756720278552914</v>
       </c>
       <c r="E20">
-        <v>9.777559946342574</v>
+        <v>9.605732631886047</v>
       </c>
       <c r="F20">
-        <v>29.38442957212384</v>
+        <v>26.50598680912192</v>
       </c>
       <c r="G20">
-        <v>36.34179200460635</v>
+        <v>31.54230855675397</v>
       </c>
       <c r="H20">
-        <v>2.098936628887856</v>
+        <v>2.032655415430974</v>
       </c>
       <c r="I20">
-        <v>2.738452525640375</v>
+        <v>2.649677815716645</v>
       </c>
       <c r="J20">
-        <v>11.90521603188889</v>
+        <v>11.0352300448815</v>
       </c>
       <c r="K20">
-        <v>21.97189350318592</v>
+        <v>19.42634089490103</v>
       </c>
       <c r="L20">
-        <v>6.592232821605092</v>
+        <v>15.21385401171278</v>
       </c>
       <c r="M20">
-        <v>28.83944391848903</v>
+        <v>13.73624567655219</v>
       </c>
       <c r="N20">
-        <v>6.231704805269311</v>
+        <v>6.355849099458704</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>28.83986857186899</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>6.588540894074353</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.339977076625011</v>
+        <v>7.80334799308771</v>
       </c>
       <c r="D21">
-        <v>6.656311326255911</v>
+        <v>7.247987200096952</v>
       </c>
       <c r="E21">
-        <v>10.27368499497078</v>
+        <v>10.12719667302491</v>
       </c>
       <c r="F21">
-        <v>30.29633823714362</v>
+        <v>26.58385785500325</v>
       </c>
       <c r="G21">
-        <v>37.61739549178271</v>
+        <v>33.48861989216614</v>
       </c>
       <c r="H21">
-        <v>1.7237893302097</v>
+        <v>1.710330009121776</v>
       </c>
       <c r="I21">
-        <v>2.588509586579113</v>
+        <v>2.635785275318346</v>
       </c>
       <c r="J21">
-        <v>12.02343062150563</v>
+        <v>10.19226126866266</v>
       </c>
       <c r="K21">
-        <v>22.54299336864825</v>
+        <v>19.39177486759377</v>
       </c>
       <c r="L21">
-        <v>6.777240810983696</v>
+        <v>15.01646437167342</v>
       </c>
       <c r="M21">
-        <v>30.55069329532636</v>
+        <v>13.953414059906</v>
       </c>
       <c r="N21">
-        <v>6.404377517360755</v>
+        <v>6.501557273094091</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>30.55041749733081</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>6.764451486262709</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.684036389461799</v>
+        <v>8.19326312272403</v>
       </c>
       <c r="D22">
-        <v>6.847229602746106</v>
+        <v>7.548615109935625</v>
       </c>
       <c r="E22">
-        <v>10.54245782236478</v>
+        <v>10.41709524529279</v>
       </c>
       <c r="F22">
-        <v>30.83188522532251</v>
+        <v>26.55951077275666</v>
       </c>
       <c r="G22">
-        <v>38.37283310762318</v>
+        <v>34.8067219264055</v>
       </c>
       <c r="H22">
-        <v>1.623966134413531</v>
+        <v>1.604221802229441</v>
       </c>
       <c r="I22">
-        <v>2.775746758694647</v>
+        <v>2.785013804826049</v>
       </c>
       <c r="J22">
-        <v>12.08955604470509</v>
+        <v>9.630539781024774</v>
       </c>
       <c r="K22">
-        <v>22.88441202815501</v>
+        <v>19.32768297243624</v>
       </c>
       <c r="L22">
-        <v>6.876413340020032</v>
+        <v>14.85639800605559</v>
       </c>
       <c r="M22">
-        <v>31.62300744960155</v>
+        <v>14.07125646107243</v>
       </c>
       <c r="N22">
-        <v>6.484791138160535</v>
+        <v>6.577331783086712</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>31.62063461319771</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>6.844471618701105</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.526863626176834</v>
+        <v>7.991658593660696</v>
       </c>
       <c r="D23">
-        <v>6.738928109878382</v>
+        <v>7.367738106188392</v>
       </c>
       <c r="E23">
-        <v>10.40326051588798</v>
+        <v>10.26019949955531</v>
       </c>
       <c r="F23">
-        <v>30.59613461526988</v>
+        <v>26.67628153316473</v>
       </c>
       <c r="G23">
-        <v>38.05481234915551</v>
+        <v>34.04185342237327</v>
       </c>
       <c r="H23">
-        <v>1.615269826684802</v>
+        <v>1.616669589755406</v>
       </c>
       <c r="I23">
-        <v>2.671665381408537</v>
+        <v>2.700533666384376</v>
       </c>
       <c r="J23">
-        <v>12.07083743018507</v>
+        <v>10.02615206759341</v>
       </c>
       <c r="K23">
-        <v>22.7456620234044</v>
+        <v>19.43887276918007</v>
       </c>
       <c r="L23">
-        <v>6.827787642576939</v>
+        <v>14.99653576708554</v>
       </c>
       <c r="M23">
-        <v>31.05497279597036</v>
+        <v>14.06923596162597</v>
       </c>
       <c r="N23">
-        <v>6.437803413135222</v>
+        <v>6.541723437790117</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>31.05391513430483</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>6.798522025971682</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.866014182108659</v>
+        <v>7.262952949942106</v>
       </c>
       <c r="D24">
-        <v>6.32705513084358</v>
+        <v>6.757296438325916</v>
       </c>
       <c r="E24">
-        <v>9.85484253375159</v>
+        <v>9.680080347203381</v>
       </c>
       <c r="F24">
-        <v>29.63621131811978</v>
+        <v>26.72833983580971</v>
       </c>
       <c r="G24">
-        <v>36.74157912953248</v>
+        <v>31.87848733127115</v>
       </c>
       <c r="H24">
-        <v>2.078960773650089</v>
+        <v>2.013248366886945</v>
       </c>
       <c r="I24">
-        <v>2.716184232422946</v>
+        <v>2.624344179245539</v>
       </c>
       <c r="J24">
-        <v>11.98453872713356</v>
+        <v>11.10689836372083</v>
       </c>
       <c r="K24">
-        <v>22.15847448896125</v>
+        <v>19.58374081830591</v>
       </c>
       <c r="L24">
-        <v>6.633188058836868</v>
+        <v>15.33290092515329</v>
       </c>
       <c r="M24">
-        <v>28.81075923005064</v>
+        <v>13.85545252313342</v>
       </c>
       <c r="N24">
-        <v>6.265120152279298</v>
+        <v>6.391836537573496</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>28.81118114072322</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>6.626257650000348</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.098415237976486</v>
+        <v>6.618303126479683</v>
       </c>
       <c r="D25">
-        <v>5.855714477382851</v>
+        <v>6.229913518198727</v>
       </c>
       <c r="E25">
-        <v>9.230714181403695</v>
+        <v>9.088605961603474</v>
       </c>
       <c r="F25">
-        <v>28.63420683716902</v>
+        <v>26.16452881076129</v>
       </c>
       <c r="G25">
-        <v>35.39201407724322</v>
+        <v>31.13508580845388</v>
       </c>
       <c r="H25">
-        <v>2.596747878594738</v>
+        <v>2.472311468684875</v>
       </c>
       <c r="I25">
-        <v>3.169881877144196</v>
+        <v>3.006889939503081</v>
       </c>
       <c r="J25">
-        <v>11.91643672982863</v>
+        <v>11.18694496567552</v>
       </c>
       <c r="K25">
-        <v>21.54582290126555</v>
+        <v>19.32245211099931</v>
       </c>
       <c r="L25">
-        <v>6.415367300590525</v>
+        <v>15.37819122220862</v>
       </c>
       <c r="M25">
-        <v>26.19009812586407</v>
+        <v>13.34302634433502</v>
       </c>
       <c r="N25">
-        <v>6.075958139358559</v>
+        <v>6.209411805195892</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>26.18580587414002</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.430499431534006</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
